--- a/sendMsg.xlsx
+++ b/sendMsg.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15680" activeTab="1"/>
+    <workbookView windowHeight="15680"/>
   </bookViews>
   <sheets>
-    <sheet name="TextMsg" sheetId="1" r:id="rId1"/>
+    <sheet name="textMsg" sheetId="1" r:id="rId1"/>
     <sheet name="数据库" sheetId="2" r:id="rId2"/>
   </sheets>
   <externalReferences>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123">
   <si>
     <t>uid</t>
   </si>
@@ -33,6 +33,21 @@
     <t>wxid</t>
   </si>
   <si>
+    <t>144115213635331595</t>
+  </si>
+  <si>
+    <t>张三</t>
+  </si>
+  <si>
+    <t>家长···</t>
+  </si>
+  <si>
+    <t>144115213592531328</t>
+  </si>
+  <si>
+    <t>李思</t>
+  </si>
+  <si>
     <t>课程id</t>
   </si>
   <si>
@@ -81,13 +96,7 @@
     <t>董松华</t>
   </si>
   <si>
-    <t>144115213635331595</t>
-  </si>
-  <si>
     <t>陈九洲</t>
-  </si>
-  <si>
-    <t>144115213592531328</t>
   </si>
   <si>
     <t>兰欣悦</t>
@@ -386,10 +395,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -444,8 +453,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -456,14 +481,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -500,6 +517,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -517,36 +556,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -574,6 +583,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -586,7 +613,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -598,121 +733,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -724,7 +745,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -736,19 +757,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -849,17 +858,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -874,90 +872,101 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -972,49 +981,49 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8618,12 +8627,15 @@
   <sheetPr/>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="3"/>
   <cols>
+    <col min="1" max="1" width="20.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="6.42857142857143" customWidth="1"/>
+    <col min="3" max="3" width="12.5714285714286" customWidth="1"/>
     <col min="4" max="4" width="20.2142857142857" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8641,16 +8653,34 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="4:4">
-      <c r="D2" s="2" t="e">
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="str">
         <f>VLOOKUP(A2,[1]uidAndWxid!$C:$E,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>wxid_m3qo6txxs6g322</v>
       </c>
     </row>
-    <row r="3" spans="4:4">
-      <c r="D3" s="2" t="e">
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="str">
         <f>VLOOKUP(A3,[1]uidAndWxid!$C:$E,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>wxid_vrboab5zmymo21</v>
       </c>
     </row>
     <row r="4" spans="4:4">
@@ -8712,8 +8742,8 @@
   <sheetPr/>
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="4"/>
@@ -8726,16 +8756,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -8749,10 +8779,10 @@
         <v>40401</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E2" t="e">
         <f>VLOOKUP(D2,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -8767,10 +8797,10 @@
         <v>40401</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E3" t="e">
         <f>VLOOKUP(D3,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -8785,10 +8815,10 @@
         <v>40401</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E4" t="e">
         <f>VLOOKUP(D4,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -8803,10 +8833,10 @@
         <v>40401</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E5" t="e">
         <f>VLOOKUP(D5,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -8821,10 +8851,10 @@
         <v>40401</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E6" t="e">
         <f>VLOOKUP(D6,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -8839,10 +8869,10 @@
         <v>40401</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E7" t="e">
         <f>VLOOKUP(D7,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -8857,10 +8887,10 @@
         <v>40401</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E8" t="str">
         <f>VLOOKUP(D8,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -8875,10 +8905,10 @@
         <v>40401</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E9" t="str">
         <f>VLOOKUP(D9,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -8893,10 +8923,10 @@
         <v>40401</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E10" t="str">
         <f>VLOOKUP(D10,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -8911,10 +8941,10 @@
         <v>40401</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E11" t="str">
         <f>VLOOKUP(D11,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -8929,10 +8959,10 @@
         <v>40401</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E12" t="str">
         <f>VLOOKUP(D12,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -8947,10 +8977,10 @@
         <v>40401</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E13" t="str">
         <f>VLOOKUP(D13,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -8965,10 +8995,10 @@
         <v>40401</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E14" t="str">
         <f>VLOOKUP(D14,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -8983,10 +9013,10 @@
         <v>40401</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E15" t="str">
         <f>VLOOKUP(D15,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -9001,10 +9031,10 @@
         <v>40405</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E16" t="str">
         <f>VLOOKUP(D16,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -9019,10 +9049,10 @@
         <v>40401</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D17" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E17" t="str">
         <f>VLOOKUP(D17,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -9037,10 +9067,10 @@
         <v>40401</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D18" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E18" t="str">
         <f>VLOOKUP(D18,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -9055,10 +9085,10 @@
         <v>40401</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D19" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E19" t="str">
         <f>VLOOKUP(D19,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -9073,10 +9103,10 @@
         <v>40401</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D20" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E20" t="str">
         <f>VLOOKUP(D20,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -9091,10 +9121,10 @@
         <v>40401</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E21" t="str">
         <f>VLOOKUP(D21,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -9109,10 +9139,10 @@
         <v>40401</v>
       </c>
       <c r="C22" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D22" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E22" t="str">
         <f>VLOOKUP(D22,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -9127,10 +9157,10 @@
         <v>40401</v>
       </c>
       <c r="C23" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D23" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E23" t="e">
         <f>VLOOKUP(D23,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -9145,10 +9175,10 @@
         <v>40401</v>
       </c>
       <c r="C24" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D24" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E24" t="e">
         <f>VLOOKUP(D24,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -9163,10 +9193,10 @@
         <v>40401</v>
       </c>
       <c r="C25" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D25" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E25" t="str">
         <f>VLOOKUP(D25,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -9181,10 +9211,10 @@
         <v>40401</v>
       </c>
       <c r="C26" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D26" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E26" t="str">
         <f>VLOOKUP(D26,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -9199,10 +9229,10 @@
         <v>40401</v>
       </c>
       <c r="C27" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D27" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E27" t="str">
         <f>VLOOKUP(D27,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -9217,10 +9247,10 @@
         <v>40401</v>
       </c>
       <c r="C28" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E28" t="str">
         <f>VLOOKUP(D28,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -9235,10 +9265,10 @@
         <v>40401</v>
       </c>
       <c r="C29" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D29" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E29" t="str">
         <f>VLOOKUP(D29,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -9253,10 +9283,10 @@
         <v>40405</v>
       </c>
       <c r="C30" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D30" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E30" t="str">
         <f>VLOOKUP(D30,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -9271,10 +9301,10 @@
         <v>40401</v>
       </c>
       <c r="C31" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D31" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E31" t="str">
         <f>VLOOKUP(D31,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -9289,10 +9319,10 @@
         <v>40401</v>
       </c>
       <c r="C32" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D32" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E32" t="str">
         <f>VLOOKUP(D32,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -9307,10 +9337,10 @@
         <v>40401</v>
       </c>
       <c r="C33" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D33" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E33" t="str">
         <f>VLOOKUP(D33,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -9325,10 +9355,10 @@
         <v>40401</v>
       </c>
       <c r="C34" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D34" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E34" t="str">
         <f>VLOOKUP(D34,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -9343,10 +9373,10 @@
         <v>40401</v>
       </c>
       <c r="C35" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D35" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E35" t="str">
         <f>VLOOKUP(D35,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -9361,10 +9391,10 @@
         <v>40401</v>
       </c>
       <c r="C36" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D36" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E36" t="str">
         <f>VLOOKUP(D36,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -9379,10 +9409,10 @@
         <v>40401</v>
       </c>
       <c r="C37" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D37" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E37" t="str">
         <f>VLOOKUP(D37,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -9397,10 +9427,10 @@
         <v>40401</v>
       </c>
       <c r="C38" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D38" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E38" t="str">
         <f>VLOOKUP(D38,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -9415,10 +9445,10 @@
         <v>40401</v>
       </c>
       <c r="C39" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D39" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E39" t="str">
         <f>VLOOKUP(D39,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -9433,10 +9463,10 @@
         <v>40401</v>
       </c>
       <c r="C40" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D40" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E40" t="str">
         <f>VLOOKUP(D40,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -9451,10 +9481,10 @@
         <v>40401</v>
       </c>
       <c r="C41" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D41" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E41" t="str">
         <f>VLOOKUP(D41,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -9469,10 +9499,10 @@
         <v>40401</v>
       </c>
       <c r="C42" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D42" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E42" t="str">
         <f>VLOOKUP(D42,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -9487,10 +9517,10 @@
         <v>40401</v>
       </c>
       <c r="C43" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D43" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E43" t="str">
         <f>VLOOKUP(D43,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -9505,10 +9535,10 @@
         <v>40401</v>
       </c>
       <c r="C44" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D44" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E44" t="str">
         <f>VLOOKUP(D44,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -9523,10 +9553,10 @@
         <v>40401</v>
       </c>
       <c r="C45" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D45" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E45" t="e">
         <f>VLOOKUP(D45,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -9541,10 +9571,10 @@
         <v>40401</v>
       </c>
       <c r="C46" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D46" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E46" t="str">
         <f>VLOOKUP(D46,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -9559,10 +9589,10 @@
         <v>40401</v>
       </c>
       <c r="C47" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D47" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E47" t="str">
         <f>VLOOKUP(D47,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -9577,10 +9607,10 @@
         <v>40401</v>
       </c>
       <c r="C48" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D48" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E48" t="str">
         <f>VLOOKUP(D48,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -9595,10 +9625,10 @@
         <v>40401</v>
       </c>
       <c r="C49" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D49" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E49" t="str">
         <f>VLOOKUP(D49,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -9613,10 +9643,10 @@
         <v>40401</v>
       </c>
       <c r="C50" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D50" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E50" t="str">
         <f>VLOOKUP(D50,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -9631,10 +9661,10 @@
         <v>40401</v>
       </c>
       <c r="C51" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D51" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E51" t="str">
         <f>VLOOKUP(D51,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -9649,10 +9679,10 @@
         <v>40401</v>
       </c>
       <c r="C52" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D52" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E52" t="str">
         <f>VLOOKUP(D52,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -9667,10 +9697,10 @@
         <v>40401</v>
       </c>
       <c r="C53" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D53" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E53" t="e">
         <f>VLOOKUP(D53,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -9685,10 +9715,10 @@
         <v>40401</v>
       </c>
       <c r="C54" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D54" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E54" t="str">
         <f>VLOOKUP(D54,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -9703,10 +9733,10 @@
         <v>40401</v>
       </c>
       <c r="C55" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D55" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E55" t="e">
         <f>VLOOKUP(D55,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -9721,10 +9751,10 @@
         <v>40401</v>
       </c>
       <c r="C56" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D56" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E56" t="str">
         <f>VLOOKUP(D56,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -9739,10 +9769,10 @@
         <v>40401</v>
       </c>
       <c r="C57" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D57" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E57" t="e">
         <f>VLOOKUP(D57,[2]Sheet1!$A:$B,2,FALSE)</f>

--- a/sendMsg.xlsx
+++ b/sendMsg.xlsx
@@ -19,101 +19,383 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123">
-  <si>
-    <t>uid</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>msg</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195">
+  <si>
+    <t>学员uid</t>
+  </si>
+  <si>
+    <t>真实姓名</t>
+  </si>
+  <si>
+    <t>反馈</t>
   </si>
   <si>
     <t>wxid</t>
   </si>
   <si>
+    <t>陈贵义</t>
+  </si>
+  <si>
+    <t>家长你好，和您反馈一下陈贵义的物理学习情况：今天学习的是功和功率，一共听了127分钟的直播课程，继续保持~然后作业已经改完了，掌握的很不错，得了75分，加油~^_^</t>
+  </si>
+  <si>
+    <t>董子涵</t>
+  </si>
+  <si>
+    <t>家长你好，和您反馈一下董子涵的物理学习情况：今天学习的是功和功率，一共听了130分钟的直播课程，继续保持~然后作业已经改完了，但是没有及格，图像比较重要，如果有知识盲区一定要解决^_^</t>
+  </si>
+  <si>
+    <t>张雪婷</t>
+  </si>
+  <si>
+    <t>家长你好，和您反馈一下张雪婷的物理学习情况：今天学习的是功和功率，一共听了127分钟的直播课程，继续保持~然后作业已经改完了，但是没有及格，图像比较重要，如果有知识盲区一定要解决^_^</t>
+  </si>
+  <si>
+    <t>郭淼</t>
+  </si>
+  <si>
+    <t>家长你好，和您反馈一下郭淼的物理学习情况：今天学习的是功和功率，一共听了129分钟的直播课程，继续保持~然后作业已经改完了，掌握的很不错，得了75分，加油~^_^</t>
+  </si>
+  <si>
+    <t>邢瑛</t>
+  </si>
+  <si>
+    <t>家长你好，和您反馈一下邢瑛的物理学习情况：今天学习的是功和功率，一共听了130分钟的直播课程，继续保持~然后作业已经改完了，但是没有及格，图像比较重要，如果有知识盲区一定要解决^_^</t>
+  </si>
+  <si>
+    <t>张紫红</t>
+  </si>
+  <si>
+    <t>家长你好，和您反馈一下张紫红的物理学习情况：今天学习的是功和功率，一共听了128分钟的直播课程，继续保持~然后作业已经改完了，掌握的很不错，得了75分，加油~^_^</t>
+  </si>
+  <si>
+    <t>尹思源</t>
+  </si>
+  <si>
+    <t>家长你好，和您反馈一下尹思源的物理学习情况：今天学习的是功和功率，中午可能来晚了，只听了86分钟的直播课程，剩下的可以看一下回放~然后作业已经改完了，但是没有及格，图像比较重要，如果有知识盲区一定要解决^_^</t>
+  </si>
+  <si>
+    <t>宋天宇</t>
+  </si>
+  <si>
+    <t>家长你好，和您反馈一下宋天宇的物理学习情况：今天学习的是功和功率，中午可能来晚了，只听了82分钟的直播课程，剩下的可以看一下回放~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>崔菁菁</t>
+  </si>
+  <si>
+    <t>家长你好，和您反馈一下崔菁菁的物理学习情况：今天学习的是功和功率，一共听了129分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>李宇惠</t>
+  </si>
+  <si>
+    <t>家长你好，和您反馈一下李宇惠的物理学习情况：今天学习的是功和功率，一共听了130分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>刘雨</t>
+  </si>
+  <si>
+    <t>家长你好，和您反馈一下刘雨的物理学习情况：今天学习的是功和功率，一共听了128分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>杰参罗布</t>
+  </si>
+  <si>
+    <t>家长你好，和您反馈一下杰参罗布的物理学习情况：今天学习的是功和功率，中午可能来晚了，只听了20分钟的直播课程，剩下的可以看一下回放~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>张敏</t>
+  </si>
+  <si>
+    <t>家长你好，和您反馈一下张敏的物理学习情况：今天学习的是功和功率，一共听了130分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>周月婷</t>
+  </si>
+  <si>
+    <t>家长你好，和您反馈一下周月婷的物理学习情况：今天学习的是功和功率，中午可能来晚了，只听了69分钟的直播课程，剩下的可以看一下回放~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>陈钰林</t>
+  </si>
+  <si>
+    <t>家长你好，和您反馈一下陈钰林的物理学习情况：今天学习的是功和功率，一共听了128分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>祁昀玮</t>
+  </si>
+  <si>
+    <t>家长你好，和您反馈一下祁昀玮的物理学习情况：今天学习的是功和功率，一共听了130分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>李鑫祥</t>
+  </si>
+  <si>
+    <t>家长你好，和您反馈一下李鑫祥的物理学习情况：今天学习的是功和功率，一共听了102分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>张琰</t>
+  </si>
+  <si>
+    <t>家长你好，和您反馈一下张琰的物理学习情况：今天学习的是功和功率，一共听了128分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>申思雨</t>
+  </si>
+  <si>
+    <t>家长你好，和您反馈一下申思雨的物理学习情况：今天学习的是功和功率，一共听了130分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>王森</t>
+  </si>
+  <si>
+    <t>家长你好，和您反馈一下王森的物理学习情况：今天学习的是功和功率，一共听了106分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>杨瑜涵</t>
+  </si>
+  <si>
+    <t>家长你好，和您反馈一下杨瑜涵的物理学习情况：今天学习的是功和功率，一共听了124分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>孙红梅</t>
+  </si>
+  <si>
+    <t>家长你好，和您反馈一下孙红梅的物理学习情况：今天学习的是功和功率，一共听了127分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>汪舒毅</t>
+  </si>
+  <si>
+    <t>家长你好，和您反馈一下汪舒毅的物理学习情况：今天学习的是功和功率，一共听了130分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>刘博芝</t>
+  </si>
+  <si>
+    <t>家长你好，和您反馈一下刘博芝的物理学习情况：今天学习的是功和功率，一共听了125分钟的直播课程，继续保持~然后作业已经改完了，但是没有及格，图像比较重要，如果有知识盲区一定要解决^_^</t>
+  </si>
+  <si>
+    <t>兰欣悦</t>
+  </si>
+  <si>
+    <t>家长你好，和您反馈一下兰欣悦的物理学习情况：今天学习的是功和功率，一共听了130分钟的直播课程，继续保持~然后作业已经改完了，掌握的很不错，得了75分，加油~^_^</t>
+  </si>
+  <si>
+    <t>张鹏军</t>
+  </si>
+  <si>
+    <t>家长你好，和您反馈一下张鹏军的物理学习情况：今天学习的是功和功率，一共听了130分钟的直播课程，继续保持~然后作业已经改完了，但是没有及格，图像比较重要，如果有知识盲区一定要解决^_^</t>
+  </si>
+  <si>
+    <t>杨欣娴</t>
+  </si>
+  <si>
+    <t>家长你好，和您反馈一下杨欣娴的物理学习情况：今天学习的是功和功率，一共听了128分钟的直播课程，继续保持~然后作业已经改完了，掌握的很不错，得了100分，加油~^_^</t>
+  </si>
+  <si>
+    <t>邱冰</t>
+  </si>
+  <si>
+    <t>家长你好，和您反馈一下邱冰的物理学习情况：今天学习的是功和功率，一共听了130分钟的直播课程，继续保持~然后作业已经改完了，但是没有及格，图像比较重要，如果有知识盲区一定要解决^_^</t>
+  </si>
+  <si>
+    <t>袁紫玉</t>
+  </si>
+  <si>
+    <t>家长你好，和您反馈一下袁紫玉的物理学习情况：今天学习的是功和功率，一共听了130分钟的直播课程，继续保持~然后作业已经改完了，掌握的很不错，得了100分，加油~^_^</t>
+  </si>
+  <si>
+    <t>景嘉锐</t>
+  </si>
+  <si>
+    <t>家长你好，和您反馈一下景嘉锐的物理学习情况：今天学习的是功和功率，中午可能来晚了，只听了48分钟的直播课程，剩下的可以看一下回放~然后作业已经改完了，但是没有及格，图像比较重要，如果有知识盲区一定要解决^_^</t>
+  </si>
+  <si>
+    <t>张宇</t>
+  </si>
+  <si>
+    <t>家长你好，和您反馈一下张宇的物理学习情况：今天学习的是功和功率，一共听了130分钟的直播课程，继续保持~然后作业已经改完了，掌握的很不错，得了100分，加油~^_^</t>
+  </si>
+  <si>
+    <t>张宇轩</t>
+  </si>
+  <si>
+    <t>家长你好，和您反馈一下张宇轩的物理学习情况：今天学习的是功和功率，一共听了130分钟的直播课程，继续保持~然后作业已经改完了，掌握的很不错，得了100分，加油~^_^</t>
+  </si>
+  <si>
+    <t>车乐</t>
+  </si>
+  <si>
+    <t>家长你好，和您反馈一下车乐的物理学习情况：今天学习的是功和功率，中午可能来晚了，只听了84分钟的直播课程，剩下的可以看一下回放~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>冯梦瑶</t>
+  </si>
+  <si>
+    <t>家长你好，和您反馈一下冯梦瑶的物理学习情况：今天学习的是功和功率，一共听了111分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>刘宇航</t>
+  </si>
+  <si>
+    <t>家长你好，和您反馈一下刘宇航的物理学习情况：今天学习的是功和功率，一共听了130分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>马苗苗</t>
+  </si>
+  <si>
+    <t>家长你好，和您反馈一下马苗苗的物理学习情况：今天学习的是功和功率，一共听了128分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>刘家欣</t>
+  </si>
+  <si>
+    <t>家长你好，和您反馈一下刘家欣的物理学习情况：今天学习的是功和功率，中午可能来晚了，只听了44分钟的直播课程，剩下的可以看一下回放~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>孔思佳</t>
+  </si>
+  <si>
+    <t>家长你好，和您反馈一下孔思佳的物理学习情况：今天学习的是功和功率，中午可能来晚了，只听了89分钟的直播课程，剩下的可以看一下回放~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>陈九洲</t>
+  </si>
+  <si>
+    <t>家长你好，和您反馈一下陈九洲的物理学习情况：今天学习的是功和功率，中午可能来晚了，只听了97分钟的直播课程，剩下的可以看一下回放~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>李卓蔓</t>
+  </si>
+  <si>
+    <t>家长你好，和您反馈一下李卓蔓的物理学习情况：今天学习的是功和功率，中午可能来晚了，只听了20分钟的直播课程，剩下的可以看一下回放~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>杨婧</t>
+  </si>
+  <si>
+    <t>家长你好，和您反馈一下杨婧的物理学习情况：今天学习的是功和功率，一共听了129分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>祝鑫鋆</t>
+  </si>
+  <si>
+    <t>家长你好，和您反馈一下祝鑫鋆的物理学习情况：今天学习的是功和功率，中午可能来晚了，只听了90分钟的直播课程，剩下的可以看一下回放~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>刘颖洁</t>
+  </si>
+  <si>
+    <t>家长你好，和您反馈一下刘颖洁的物理学习情况：今天学习的是功和功率，一共听了130分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>范紫萱</t>
+  </si>
+  <si>
+    <t>家长你好，和您反馈一下范紫萱的物理学习情况：今天学习的是功和功率，一共听了108分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>章灵</t>
+  </si>
+  <si>
+    <t>家长你好，和您反馈一下章灵的物理学习情况：今天学习的是功和功率，一共听了130分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>周晨</t>
+  </si>
+  <si>
+    <t>家长你好，和您反馈一下周晨的物理学习情况：今天学习的是功和功率，一共听了102分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>安润泽</t>
+  </si>
+  <si>
+    <t>家长你好，和您反馈一下安润泽的物理学习情况：今天学习的是功和功率，一共听了130分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>史嘉鑫</t>
+  </si>
+  <si>
+    <t>家长你好，和您反馈一下史嘉鑫的物理学习情况：今天学习的是功和功率，一共听了130分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>海溶哲</t>
+  </si>
+  <si>
+    <t>家长你好，和您反馈一下海溶哲的物理学习情况：今天学习的是功和功率，一共听了126分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>马俊</t>
+  </si>
+  <si>
+    <t>家长你好，和您反馈一下马俊的物理学习情况：今天学习的是功和功率，一共听了130分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>李秀霞</t>
+  </si>
+  <si>
+    <t>家长你好，和您反馈一下李秀霞的物理学习情况：今天学习的是功和功率，一共听了130分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>蔡雨晴</t>
+  </si>
+  <si>
+    <t>家长你好，和您反馈一下蔡雨晴的物理学习情况：今天学习的是功和功率，中午可能来晚了，只听了1分钟的直播课程，剩下的可以看一下回放~然后作业还没有提交，尽量在今天完成^_^</t>
+  </si>
+  <si>
+    <t>课程id</t>
+  </si>
+  <si>
+    <t>小班id</t>
+  </si>
+  <si>
+    <t>学员uin</t>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>144115214382726152</t>
+  </si>
+  <si>
+    <t>3025076255</t>
+  </si>
+  <si>
+    <t>黄轩</t>
+  </si>
+  <si>
+    <t>144115213935864015</t>
+  </si>
+  <si>
+    <t>夏天</t>
+  </si>
+  <si>
+    <t>1242197425</t>
+  </si>
+  <si>
+    <t>144115213783724290</t>
+  </si>
+  <si>
+    <t>144115213939723867</t>
+  </si>
+  <si>
+    <t>董松华</t>
+  </si>
+  <si>
     <t>144115213635331595</t>
   </si>
   <si>
-    <t>张三</t>
-  </si>
-  <si>
-    <t>家长···</t>
-  </si>
-  <si>
     <t>144115213592531328</t>
   </si>
   <si>
-    <t>李思</t>
-  </si>
-  <si>
-    <t>课程id</t>
-  </si>
-  <si>
-    <t>小班id</t>
-  </si>
-  <si>
-    <t>学员uin</t>
-  </si>
-  <si>
-    <t>姓名</t>
-  </si>
-  <si>
-    <t>144115214382726152</t>
-  </si>
-  <si>
-    <t>范紫萱</t>
-  </si>
-  <si>
-    <t>3025076255</t>
-  </si>
-  <si>
-    <t>黄轩</t>
-  </si>
-  <si>
-    <t>144115213935864015</t>
-  </si>
-  <si>
-    <t>夏天</t>
-  </si>
-  <si>
-    <t>1242197425</t>
-  </si>
-  <si>
-    <t>张宇轩</t>
-  </si>
-  <si>
-    <t>144115213783724290</t>
-  </si>
-  <si>
-    <t>袁紫玉</t>
-  </si>
-  <si>
-    <t>144115213939723867</t>
-  </si>
-  <si>
-    <t>董松华</t>
-  </si>
-  <si>
-    <t>陈九洲</t>
-  </si>
-  <si>
-    <t>兰欣悦</t>
-  </si>
-  <si>
     <t>2160689626</t>
   </si>
   <si>
-    <t>马苗苗</t>
-  </si>
-  <si>
     <t>144115212116906545</t>
   </si>
   <si>
-    <t>张宇</t>
-  </si>
-  <si>
     <t>144115214458369858</t>
   </si>
   <si>
@@ -135,15 +417,9 @@
     <t>144115214782545336</t>
   </si>
   <si>
-    <t>杨欣娴</t>
-  </si>
-  <si>
     <t>144115214716581103</t>
   </si>
   <si>
-    <t>宋天宇</t>
-  </si>
-  <si>
     <t>144115213411457658</t>
   </si>
   <si>
@@ -165,15 +441,9 @@
     <t>1169337971</t>
   </si>
   <si>
-    <t>车乐</t>
-  </si>
-  <si>
     <t>1318244912</t>
   </si>
   <si>
-    <t>马俊</t>
-  </si>
-  <si>
     <t>144115212768011339</t>
   </si>
   <si>
@@ -195,27 +465,15 @@
     <t>144115213738430796</t>
   </si>
   <si>
-    <t>李卓蔓</t>
-  </si>
-  <si>
     <t>144115213612730082</t>
   </si>
   <si>
-    <t>孔思佳</t>
-  </si>
-  <si>
     <t>144115213824393310</t>
   </si>
   <si>
-    <t>杨婧</t>
-  </si>
-  <si>
     <t>1411386023</t>
   </si>
   <si>
-    <t>冯梦瑶</t>
-  </si>
-  <si>
     <t>2801935472</t>
   </si>
   <si>
@@ -231,9 +489,6 @@
     <t>1713019685</t>
   </si>
   <si>
-    <t>刘宇航</t>
-  </si>
-  <si>
     <t>144115214072571201</t>
   </si>
   <si>
@@ -243,9 +498,6 @@
     <t>144115212978168860</t>
   </si>
   <si>
-    <t>刘家欣</t>
-  </si>
-  <si>
     <t>144115213820518802</t>
   </si>
   <si>
@@ -255,9 +507,6 @@
     <t>144115214082121417</t>
   </si>
   <si>
-    <t>刘颖洁</t>
-  </si>
-  <si>
     <t>144115213586653647</t>
   </si>
   <si>
@@ -267,9 +516,6 @@
     <t>2935128039</t>
   </si>
   <si>
-    <t>景嘉锐</t>
-  </si>
-  <si>
     <t>144115213826166370</t>
   </si>
   <si>
@@ -279,33 +525,18 @@
     <t>144115214939978469</t>
   </si>
   <si>
-    <t>刘博芝</t>
-  </si>
-  <si>
     <t>144115214048108265</t>
   </si>
   <si>
-    <t>祝鑫鋆</t>
-  </si>
-  <si>
     <t>144115214634521142</t>
   </si>
   <si>
-    <t>章灵</t>
-  </si>
-  <si>
     <t>144115215273717788</t>
   </si>
   <si>
-    <t>史嘉鑫</t>
-  </si>
-  <si>
     <t>144115214743714411</t>
   </si>
   <si>
-    <t>周晨</t>
-  </si>
-  <si>
     <t>144115215393609046</t>
   </si>
   <si>
@@ -327,9 +558,6 @@
     <t>144115214765650657</t>
   </si>
   <si>
-    <t>安润泽</t>
-  </si>
-  <si>
     <t>144115215324722862</t>
   </si>
   <si>
@@ -339,21 +567,12 @@
     <t>144115214640617540</t>
   </si>
   <si>
-    <t>邱冰</t>
-  </si>
-  <si>
     <t>144115215444317919</t>
   </si>
   <si>
-    <t>蔡雨晴</t>
-  </si>
-  <si>
     <t>144115213157853485</t>
   </si>
   <si>
-    <t>海溶哲</t>
-  </si>
-  <si>
     <t>144115215548604158</t>
   </si>
   <si>
@@ -385,9 +604,6 @@
   </si>
   <si>
     <t>144115215463116777</t>
-  </si>
-  <si>
-    <t>张鹏军</t>
   </si>
 </sst>
 </file>
@@ -395,14 +611,22 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -425,9 +649,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -435,14 +659,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -461,6 +677,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -468,11 +692,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -508,9 +732,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -518,6 +748,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -531,25 +768,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -583,7 +814,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -595,13 +874,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -613,13 +922,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -631,25 +952,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -661,103 +982,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -789,39 +1020,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -843,17 +1041,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -873,6 +1074,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -888,124 +1119,124 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1014,33 +1245,37 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1093,6 +1328,18 @@
     <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
     <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -8625,28 +8872,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="20.7142857142857" customWidth="1"/>
     <col min="2" max="2" width="6.42857142857143" customWidth="1"/>
-    <col min="3" max="3" width="12.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="226.5" customWidth="1"/>
     <col min="4" max="4" width="20.2142857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -8654,84 +8901,622 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="A2" s="3">
+        <v>1.4411521523988e+17</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="4" t="e">
+        <f>VLOOKUP(A2,[1]uidAndWxid!$C:$E,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="3">
+        <v>1.4411521560051e+17</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="str">
-        <f>VLOOKUP(A2,[1]uidAndWxid!$C:$E,3,FALSE)</f>
-        <v>wxid_m3qo6txxs6g322</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" s="4" t="e">
+        <f>VLOOKUP(A3,[1]uidAndWxid!$C:$E,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3">
+        <v>1.44115215599897e+17</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="str">
-        <f>VLOOKUP(A3,[1]uidAndWxid!$C:$E,3,FALSE)</f>
-        <v>wxid_vrboab5zmymo21</v>
-      </c>
-    </row>
-    <row r="4" spans="4:4">
-      <c r="D4" s="2" t="e">
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4" t="e">
         <f>VLOOKUP(A4,[1]uidAndWxid!$C:$E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="5" spans="4:4">
-      <c r="D5" s="2" t="e">
+    <row r="5" spans="1:4">
+      <c r="A5" s="3">
+        <v>1.4411521360518e+17</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="4" t="e">
         <f>VLOOKUP(A5,[1]uidAndWxid!$C:$E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="6" spans="4:4">
-      <c r="D6" s="2" t="e">
+    <row r="6" spans="1:4">
+      <c r="A6" s="3">
+        <v>1.44115215591329e+17</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="4" t="e">
         <f>VLOOKUP(A6,[1]uidAndWxid!$C:$E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="7" spans="4:4">
-      <c r="D7" s="2" t="e">
+    <row r="7" spans="1:4">
+      <c r="A7" s="3">
+        <v>2452286352</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="4" t="e">
         <f>VLOOKUP(A7,[1]uidAndWxid!$C:$E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="8" spans="4:4">
-      <c r="D8" s="2" t="e">
+    <row r="8" spans="1:4">
+      <c r="A8" s="3">
+        <v>1.44115215604892e+17</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="4" t="e">
         <f>VLOOKUP(A8,[1]uidAndWxid!$C:$E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="9" spans="4:4">
-      <c r="D9" s="2" t="e">
+    <row r="9" spans="1:4">
+      <c r="A9" s="3">
+        <v>1.44115214716581e+17</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="4" t="e">
         <f>VLOOKUP(A9,[1]uidAndWxid!$C:$E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="10" spans="4:4">
-      <c r="D10" s="2" t="e">
+    <row r="10" spans="1:4">
+      <c r="A10" s="3">
+        <v>1.4411521341754e+17</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="4" t="e">
         <f>VLOOKUP(A10,[1]uidAndWxid!$C:$E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="11" spans="4:4">
-      <c r="D11" s="2" t="e">
+    <row r="11" spans="1:4">
+      <c r="A11" s="3">
+        <v>1.4411521507306e+17</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="4" t="e">
         <f>VLOOKUP(A11,[1]uidAndWxid!$C:$E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3">
+        <v>2609311635</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3">
+        <v>1.44115215501977e+17</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3">
+        <v>1.44115211788307e+17</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3">
+        <v>1.44115215507008e+17</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3">
+        <v>405551893</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3">
+        <v>1.44115211028108e+17</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3">
+        <v>1.44115215600561e+17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3">
+        <v>1.44115215510869e+17</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="3">
+        <v>2089106473</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3">
+        <v>1.44115212843665e+17</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3">
+        <v>1.44115212038906e+17</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3">
+        <v>1.44115215514057e+17</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3">
+        <v>1.44115215577371e+17</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3">
+        <v>1.44115214939978e+17</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3">
+        <v>1.44115213592531e+17</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3">
+        <v>1.44115215463117e+17</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="3">
+        <v>1.44115214782545e+17</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="3">
+        <v>1.44115214640618e+17</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3">
+        <v>1.44115213783724e+17</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="3">
+        <v>2935128039</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="3">
+        <v>1.44115212116907e+17</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="3">
+        <v>1242197425</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="3">
+        <v>1169337971</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="3">
+        <v>1411386023</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="3">
+        <v>1713019685</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="3">
+        <v>2160689626</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="3">
+        <v>1.44115212978169e+17</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="3">
+        <v>1.4411521361273e+17</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="3">
+        <v>1.44115213635332e+17</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="3">
+        <v>1.44115213738431e+17</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="3">
+        <v>1.44115213824393e+17</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="3">
+        <v>1.44115214048108e+17</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="3">
+        <v>1.44115214082121e+17</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="3">
+        <v>1.44115214382726e+17</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="3">
+        <v>1.44115214634521e+17</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="3">
+        <v>1.44115214743714e+17</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="3">
+        <v>1.44115214765651e+17</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="3">
+        <v>1.44115215273718e+17</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="3">
+        <v>1.44115213157854e+17</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="3">
+        <v>1318244912</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="3">
+        <v>1.44115215459083e+17</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="3">
+        <v>1.44115215444318e+17</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="B1:B8 B9:B11 B12 B13 B14 B15:B16 B17 B18 B19:B21 B22 B23 B24 B25:B37 B38:B41 B42 B43 B44:B49 B50 B51:B52 B53">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
@@ -8756,16 +9541,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>108</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -8779,10 +9564,10 @@
         <v>40401</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>112</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="E2" t="e">
         <f>VLOOKUP(D2,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -8797,10 +9582,10 @@
         <v>40401</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="E3" t="e">
         <f>VLOOKUP(D3,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -8815,10 +9600,10 @@
         <v>40401</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>115</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>116</v>
       </c>
       <c r="E4" t="e">
         <f>VLOOKUP(D4,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -8833,10 +9618,10 @@
         <v>40401</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>117</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="E5" t="e">
         <f>VLOOKUP(D5,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -8851,10 +9636,10 @@
         <v>40401</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>118</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="E6" t="e">
         <f>VLOOKUP(D6,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -8869,10 +9654,10 @@
         <v>40401</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>119</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="E7" t="e">
         <f>VLOOKUP(D7,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -8887,10 +9672,10 @@
         <v>40401</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>121</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="E8" t="str">
         <f>VLOOKUP(D8,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -8905,10 +9690,10 @@
         <v>40401</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>122</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="E9" t="str">
         <f>VLOOKUP(D9,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -8923,10 +9708,10 @@
         <v>40401</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>123</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="E10" t="str">
         <f>VLOOKUP(D10,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -8941,10 +9726,10 @@
         <v>40401</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>124</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="E11" t="str">
         <f>VLOOKUP(D11,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -8959,10 +9744,10 @@
         <v>40401</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>125</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>126</v>
       </c>
       <c r="E12" t="str">
         <f>VLOOKUP(D12,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -8977,10 +9762,10 @@
         <v>40401</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>127</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>128</v>
       </c>
       <c r="E13" t="str">
         <f>VLOOKUP(D13,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -8995,10 +9780,10 @@
         <v>40401</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>129</v>
       </c>
       <c r="D14" t="s">
-        <v>36</v>
+        <v>130</v>
       </c>
       <c r="E14" t="str">
         <f>VLOOKUP(D14,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -9013,10 +9798,10 @@
         <v>40401</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="E15" t="str">
         <f>VLOOKUP(D15,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -9031,10 +9816,10 @@
         <v>40405</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>132</v>
       </c>
       <c r="D16" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="E16" t="str">
         <f>VLOOKUP(D16,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -9049,10 +9834,10 @@
         <v>40401</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>133</v>
       </c>
       <c r="D17" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="E17" t="str">
         <f>VLOOKUP(D17,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -9067,10 +9852,10 @@
         <v>40401</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>135</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>136</v>
       </c>
       <c r="E18" t="str">
         <f>VLOOKUP(D18,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -9085,10 +9870,10 @@
         <v>40401</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>137</v>
       </c>
       <c r="D19" t="s">
-        <v>46</v>
+        <v>138</v>
       </c>
       <c r="E19" t="str">
         <f>VLOOKUP(D19,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -9103,10 +9888,10 @@
         <v>40401</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>139</v>
       </c>
       <c r="D20" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="E20" t="str">
         <f>VLOOKUP(D20,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -9121,10 +9906,10 @@
         <v>40401</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>140</v>
       </c>
       <c r="D21" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="E21" t="str">
         <f>VLOOKUP(D21,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -9139,10 +9924,10 @@
         <v>40401</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
+        <v>141</v>
       </c>
       <c r="D22" t="s">
-        <v>52</v>
+        <v>142</v>
       </c>
       <c r="E22" t="str">
         <f>VLOOKUP(D22,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -9157,10 +9942,10 @@
         <v>40401</v>
       </c>
       <c r="C23" t="s">
-        <v>53</v>
+        <v>143</v>
       </c>
       <c r="D23" t="s">
-        <v>54</v>
+        <v>144</v>
       </c>
       <c r="E23" t="e">
         <f>VLOOKUP(D23,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -9175,10 +9960,10 @@
         <v>40401</v>
       </c>
       <c r="C24" t="s">
-        <v>55</v>
+        <v>145</v>
       </c>
       <c r="D24" t="s">
-        <v>56</v>
+        <v>146</v>
       </c>
       <c r="E24" t="e">
         <f>VLOOKUP(D24,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -9193,10 +9978,10 @@
         <v>40401</v>
       </c>
       <c r="C25" t="s">
-        <v>57</v>
+        <v>147</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="E25" t="str">
         <f>VLOOKUP(D25,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -9211,10 +9996,10 @@
         <v>40401</v>
       </c>
       <c r="C26" t="s">
-        <v>59</v>
+        <v>148</v>
       </c>
       <c r="D26" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="E26" t="str">
         <f>VLOOKUP(D26,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -9229,10 +10014,10 @@
         <v>40401</v>
       </c>
       <c r="C27" t="s">
-        <v>61</v>
+        <v>149</v>
       </c>
       <c r="D27" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="E27" t="str">
         <f>VLOOKUP(D27,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -9247,10 +10032,10 @@
         <v>40401</v>
       </c>
       <c r="C28" t="s">
-        <v>63</v>
+        <v>150</v>
       </c>
       <c r="D28" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E28" t="str">
         <f>VLOOKUP(D28,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -9265,10 +10050,10 @@
         <v>40401</v>
       </c>
       <c r="C29" t="s">
-        <v>65</v>
+        <v>151</v>
       </c>
       <c r="D29" t="s">
-        <v>66</v>
+        <v>152</v>
       </c>
       <c r="E29" t="str">
         <f>VLOOKUP(D29,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -9283,10 +10068,10 @@
         <v>40405</v>
       </c>
       <c r="C30" t="s">
-        <v>67</v>
+        <v>153</v>
       </c>
       <c r="D30" t="s">
-        <v>68</v>
+        <v>154</v>
       </c>
       <c r="E30" t="str">
         <f>VLOOKUP(D30,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -9301,10 +10086,10 @@
         <v>40401</v>
       </c>
       <c r="C31" t="s">
-        <v>69</v>
+        <v>155</v>
       </c>
       <c r="D31" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E31" t="str">
         <f>VLOOKUP(D31,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -9319,10 +10104,10 @@
         <v>40401</v>
       </c>
       <c r="C32" t="s">
-        <v>71</v>
+        <v>156</v>
       </c>
       <c r="D32" t="s">
-        <v>72</v>
+        <v>157</v>
       </c>
       <c r="E32" t="str">
         <f>VLOOKUP(D32,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -9337,10 +10122,10 @@
         <v>40401</v>
       </c>
       <c r="C33" t="s">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="D33" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E33" t="str">
         <f>VLOOKUP(D33,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -9355,10 +10140,10 @@
         <v>40401</v>
       </c>
       <c r="C34" t="s">
-        <v>75</v>
+        <v>159</v>
       </c>
       <c r="D34" t="s">
-        <v>76</v>
+        <v>160</v>
       </c>
       <c r="E34" t="str">
         <f>VLOOKUP(D34,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -9373,10 +10158,10 @@
         <v>40401</v>
       </c>
       <c r="C35" t="s">
-        <v>77</v>
+        <v>161</v>
       </c>
       <c r="D35" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="E35" t="str">
         <f>VLOOKUP(D35,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -9391,10 +10176,10 @@
         <v>40401</v>
       </c>
       <c r="C36" t="s">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="D36" t="s">
-        <v>80</v>
+        <v>163</v>
       </c>
       <c r="E36" t="str">
         <f>VLOOKUP(D36,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -9409,10 +10194,10 @@
         <v>40401</v>
       </c>
       <c r="C37" t="s">
-        <v>81</v>
+        <v>164</v>
       </c>
       <c r="D37" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="E37" t="str">
         <f>VLOOKUP(D37,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -9427,10 +10212,10 @@
         <v>40401</v>
       </c>
       <c r="C38" t="s">
-        <v>83</v>
+        <v>165</v>
       </c>
       <c r="D38" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="E38" t="str">
         <f>VLOOKUP(D38,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -9445,10 +10230,10 @@
         <v>40401</v>
       </c>
       <c r="C39" t="s">
-        <v>85</v>
+        <v>167</v>
       </c>
       <c r="D39" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="E39" t="str">
         <f>VLOOKUP(D39,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -9463,10 +10248,10 @@
         <v>40401</v>
       </c>
       <c r="C40" t="s">
-        <v>87</v>
+        <v>168</v>
       </c>
       <c r="D40" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E40" t="str">
         <f>VLOOKUP(D40,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -9481,10 +10266,10 @@
         <v>40401</v>
       </c>
       <c r="C41" t="s">
-        <v>89</v>
+        <v>169</v>
       </c>
       <c r="D41" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E41" t="str">
         <f>VLOOKUP(D41,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -9499,10 +10284,10 @@
         <v>40401</v>
       </c>
       <c r="C42" t="s">
-        <v>91</v>
+        <v>170</v>
       </c>
       <c r="D42" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="E42" t="str">
         <f>VLOOKUP(D42,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -9517,7 +10302,7 @@
         <v>40401</v>
       </c>
       <c r="C43" t="s">
-        <v>93</v>
+        <v>171</v>
       </c>
       <c r="D43" t="s">
         <v>94</v>
@@ -9535,10 +10320,10 @@
         <v>40401</v>
       </c>
       <c r="C44" t="s">
-        <v>95</v>
+        <v>172</v>
       </c>
       <c r="D44" t="s">
-        <v>96</v>
+        <v>173</v>
       </c>
       <c r="E44" t="str">
         <f>VLOOKUP(D44,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -9553,10 +10338,10 @@
         <v>40401</v>
       </c>
       <c r="C45" t="s">
-        <v>97</v>
+        <v>174</v>
       </c>
       <c r="D45" t="s">
-        <v>98</v>
+        <v>175</v>
       </c>
       <c r="E45" t="e">
         <f>VLOOKUP(D45,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -9571,10 +10356,10 @@
         <v>40401</v>
       </c>
       <c r="C46" t="s">
-        <v>99</v>
+        <v>176</v>
       </c>
       <c r="D46" t="s">
-        <v>100</v>
+        <v>177</v>
       </c>
       <c r="E46" t="str">
         <f>VLOOKUP(D46,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -9589,10 +10374,10 @@
         <v>40401</v>
       </c>
       <c r="C47" t="s">
-        <v>101</v>
+        <v>178</v>
       </c>
       <c r="D47" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E47" t="str">
         <f>VLOOKUP(D47,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -9607,10 +10392,10 @@
         <v>40401</v>
       </c>
       <c r="C48" t="s">
-        <v>103</v>
+        <v>179</v>
       </c>
       <c r="D48" t="s">
-        <v>104</v>
+        <v>180</v>
       </c>
       <c r="E48" t="str">
         <f>VLOOKUP(D48,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -9625,10 +10410,10 @@
         <v>40401</v>
       </c>
       <c r="C49" t="s">
-        <v>105</v>
+        <v>181</v>
       </c>
       <c r="D49" t="s">
-        <v>106</v>
+        <v>58</v>
       </c>
       <c r="E49" t="str">
         <f>VLOOKUP(D49,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -9643,10 +10428,10 @@
         <v>40401</v>
       </c>
       <c r="C50" t="s">
-        <v>107</v>
+        <v>182</v>
       </c>
       <c r="D50" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E50" t="str">
         <f>VLOOKUP(D50,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -9661,10 +10446,10 @@
         <v>40401</v>
       </c>
       <c r="C51" t="s">
-        <v>109</v>
+        <v>183</v>
       </c>
       <c r="D51" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E51" t="str">
         <f>VLOOKUP(D51,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -9679,10 +10464,10 @@
         <v>40401</v>
       </c>
       <c r="C52" t="s">
-        <v>111</v>
+        <v>184</v>
       </c>
       <c r="D52" t="s">
-        <v>112</v>
+        <v>185</v>
       </c>
       <c r="E52" t="str">
         <f>VLOOKUP(D52,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -9697,10 +10482,10 @@
         <v>40401</v>
       </c>
       <c r="C53" t="s">
-        <v>113</v>
+        <v>186</v>
       </c>
       <c r="D53" t="s">
-        <v>114</v>
+        <v>187</v>
       </c>
       <c r="E53" t="e">
         <f>VLOOKUP(D53,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -9715,10 +10500,10 @@
         <v>40401</v>
       </c>
       <c r="C54" t="s">
-        <v>115</v>
+        <v>188</v>
       </c>
       <c r="D54" t="s">
-        <v>116</v>
+        <v>189</v>
       </c>
       <c r="E54" t="str">
         <f>VLOOKUP(D54,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -9733,10 +10518,10 @@
         <v>40401</v>
       </c>
       <c r="C55" t="s">
-        <v>117</v>
+        <v>190</v>
       </c>
       <c r="D55" t="s">
-        <v>118</v>
+        <v>191</v>
       </c>
       <c r="E55" t="e">
         <f>VLOOKUP(D55,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -9751,10 +10536,10 @@
         <v>40401</v>
       </c>
       <c r="C56" t="s">
-        <v>119</v>
+        <v>192</v>
       </c>
       <c r="D56" t="s">
-        <v>120</v>
+        <v>193</v>
       </c>
       <c r="E56" t="str">
         <f>VLOOKUP(D56,[2]Sheet1!$A:$B,2,FALSE)</f>
@@ -9769,10 +10554,10 @@
         <v>40401</v>
       </c>
       <c r="C57" t="s">
-        <v>121</v>
+        <v>194</v>
       </c>
       <c r="D57" t="s">
-        <v>122</v>
+        <v>54</v>
       </c>
       <c r="E57" t="e">
         <f>VLOOKUP(D57,[2]Sheet1!$A:$B,2,FALSE)</f>

--- a/sendMsg.xlsx
+++ b/sendMsg.xlsx
@@ -612,21 +612,13 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="22">
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -649,7 +641,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -657,21 +657,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -685,6 +670,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -693,18 +686,25 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -726,7 +726,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -753,32 +753,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -798,6 +775,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -808,19 +793,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -838,13 +811,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -856,97 +841,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -964,7 +865,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -976,7 +931,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -988,7 +967,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1020,7 +1005,81 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1040,203 +1099,129 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1245,37 +1230,36 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -8910,7 +8894,7 @@
       <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="e">
+      <c r="D2" s="3" t="e">
         <f>VLOOKUP(A2,[1]uidAndWxid!$C:$E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -8925,7 +8909,7 @@
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="4" t="e">
+      <c r="D3" s="3" t="e">
         <f>VLOOKUP(A3,[1]uidAndWxid!$C:$E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -8940,7 +8924,7 @@
       <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="4" t="e">
+      <c r="D4" s="3" t="e">
         <f>VLOOKUP(A4,[1]uidAndWxid!$C:$E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -8955,7 +8939,7 @@
       <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="4" t="e">
+      <c r="D5" s="3" t="e">
         <f>VLOOKUP(A5,[1]uidAndWxid!$C:$E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -8970,7 +8954,7 @@
       <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="4" t="e">
+      <c r="D6" s="3" t="e">
         <f>VLOOKUP(A6,[1]uidAndWxid!$C:$E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -8985,7 +8969,7 @@
       <c r="C7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="4" t="e">
+      <c r="D7" s="3" t="e">
         <f>VLOOKUP(A7,[1]uidAndWxid!$C:$E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -9000,7 +8984,7 @@
       <c r="C8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="4" t="e">
+      <c r="D8" s="3" t="e">
         <f>VLOOKUP(A8,[1]uidAndWxid!$C:$E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -9015,7 +8999,7 @@
       <c r="C9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="4" t="e">
+      <c r="D9" s="3" t="e">
         <f>VLOOKUP(A9,[1]uidAndWxid!$C:$E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -9030,7 +9014,7 @@
       <c r="C10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="4" t="e">
+      <c r="D10" s="3" t="e">
         <f>VLOOKUP(A10,[1]uidAndWxid!$C:$E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -9045,7 +9029,7 @@
       <c r="C11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="4" t="e">
+      <c r="D11" s="3" t="e">
         <f>VLOOKUP(A11,[1]uidAndWxid!$C:$E,3,FALSE)</f>
         <v>#N/A</v>
       </c>

--- a/sendMsg.xlsx
+++ b/sendMsg.xlsx
@@ -14,7 +14,7 @@
     <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
   </externalReferences>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -27,7 +27,7 @@
     <t>真实姓名</t>
   </si>
   <si>
-    <t>反馈</t>
+    <t>msg</t>
   </si>
   <si>
     <t>wxid</t>
@@ -611,9 +611,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -641,20 +641,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -663,16 +656,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -685,14 +677,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -702,9 +686,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -724,9 +716,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -740,45 +778,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -793,7 +793,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -805,7 +805,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -817,37 +853,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -859,7 +871,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -877,7 +889,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -889,43 +949,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -937,43 +967,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1004,41 +1004,25 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1076,26 +1060,42 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1104,148 +1104,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -8859,7 +8859,7 @@
   <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="3"/>

--- a/sendMsg.xlsx
+++ b/sendMsg.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15680"/>
+    <workbookView windowHeight="15660"/>
   </bookViews>
   <sheets>
     <sheet name="textMsg" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,13 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId3"/>
-    <externalReference r:id="rId4"/>
   </externalReferences>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197">
   <si>
     <t>学员uid</t>
   </si>
@@ -33,541 +32,547 @@
     <t>wxid</t>
   </si>
   <si>
+    <t>张宇轩</t>
+  </si>
+  <si>
+    <t xml:space="preserve">家长你好，今天张宇轩的物理课学习的重点是平抛运动，孩子中午一共听了130分钟的直播课程，非常好/:strong~然后作业已经改完了，今天的内容都吸收了，得了100分[Yeah!] </t>
+  </si>
+  <si>
+    <t>张紫红</t>
+  </si>
+  <si>
+    <t xml:space="preserve">家长你好，今天张紫红的物理课学习的重点是平抛运动，孩子中午一共听了130分钟的直播课程，非常好/:strong~然后作业已经改完了，今天的内容都吸收了，得了75分[Yeah!] </t>
+  </si>
+  <si>
+    <t>袁紫玉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">家长你好，今天袁紫玉的物理课学习的重点是平抛运动，孩子中午一共听了130分钟的直播课程，非常好/:strong~然后作业已经改完了，今天的内容都吸收了，得了100分[Yeah!] </t>
+  </si>
+  <si>
+    <t>兰欣悦</t>
+  </si>
+  <si>
+    <t xml:space="preserve">家长你好，今天兰欣悦的物理课学习的重点是平抛运动，孩子中午一共听了130分钟的直播课程，非常好/:strong~然后作业已经改完了，今天的内容都吸收了，得了75分[Yeah!] </t>
+  </si>
+  <si>
     <t>陈贵义</t>
   </si>
   <si>
-    <t>家长你好，和您反馈一下陈贵义的物理学习情况：今天学习的是功和功率，一共听了127分钟的直播课程，继续保持~然后作业已经改完了，掌握的很不错，得了75分，加油~^_^</t>
+    <t xml:space="preserve">家长你好，今天陈贵义的物理课学习的重点是平抛运动，孩子中午一共听了130分钟的直播课程，非常好/:strong~然后作业已经改完了，今天的内容都吸收了，得了75分[Yeah!] </t>
+  </si>
+  <si>
+    <t>章灵</t>
+  </si>
+  <si>
+    <t xml:space="preserve">家长你好，今天章灵的物理课学习的重点是平抛运动，孩子中午一共听了130分钟的直播课程，非常好/:strong~但是作业还没完成，及时在APP内提交一下，我帮孩子批改/:moon </t>
+  </si>
+  <si>
+    <t>祁昀玮</t>
+  </si>
+  <si>
+    <t xml:space="preserve">家长你好，今天祁昀玮的物理课学习的重点是平抛运动，孩子中午一共听了130分钟的直播课程，非常好/:strong~然后作业已经改完了，今天的内容都吸收了，得了100分[Yeah!] </t>
+  </si>
+  <si>
+    <t>杨婧</t>
+  </si>
+  <si>
+    <t xml:space="preserve">家长你好，今天杨婧的物理课学习的重点是平抛运动，孩子中午一共听了130分钟的直播课程，非常好/:strong~但是作业还没完成，及时在APP内提交一下，我帮孩子批改/:moon </t>
+  </si>
+  <si>
+    <t>张琰</t>
+  </si>
+  <si>
+    <t xml:space="preserve">家长你好，今天张琰的物理课学习的重点是平抛运动，孩子中午一共听了130分钟的直播课程，非常好/:strong~然后作业已经改完了，今天的内容都吸收了，得了75分[Yeah!] </t>
+  </si>
+  <si>
+    <t>尹思源</t>
+  </si>
+  <si>
+    <t xml:space="preserve">家长你好，今天尹思源的物理课学习的重点是平抛运动，孩子中午一共听了130分钟的直播课程，非常好/:strong~然后作业已经改完了，但是错的比较多，明天课前15min按时来听习题讲解[Smart] </t>
+  </si>
+  <si>
+    <t>周月婷</t>
+  </si>
+  <si>
+    <t xml:space="preserve">家长你好，今天周月婷的物理课学习的重点是平抛运动，孩子中午一共听了130分钟的直播课程，非常好/:strong~但是作业还没完成，及时在APP内提交一下，我帮孩子批改/:moon </t>
+  </si>
+  <si>
+    <t>海溶哲</t>
+  </si>
+  <si>
+    <t xml:space="preserve">家长你好，今天海溶哲的物理课学习的重点是平抛运动，孩子中午一共听了130分钟的直播课程，非常好/:strong~然后作业已经改完了，今天的内容都吸收了，得了75分[Yeah!] </t>
+  </si>
+  <si>
+    <t>张雪婷</t>
+  </si>
+  <si>
+    <t xml:space="preserve">家长你好，今天张雪婷的物理课学习的重点是平抛运动，孩子中午一共听了130分钟的直播课程，非常好/:strong~然后作业已经改完了，今天的内容都吸收了，得了50分[Yeah!] </t>
+  </si>
+  <si>
+    <t>张鹏军</t>
+  </si>
+  <si>
+    <t xml:space="preserve">家长你好，今天张鹏军的物理课学习的重点是平抛运动，孩子中午一共听了129分钟的直播课程，非常好/:strong~然后作业已经改完了，今天的内容都吸收了，得了50分[Yeah!] </t>
+  </si>
+  <si>
+    <t>张宇</t>
+  </si>
+  <si>
+    <t xml:space="preserve">家长你好，今天张宇的物理课学习的重点是平抛运动，孩子中午一共听了129分钟的直播课程，非常好/:strong~然后作业已经改完了，今天的内容都吸收了，得了100分[Yeah!] </t>
+  </si>
+  <si>
+    <t>李宇惠</t>
+  </si>
+  <si>
+    <t xml:space="preserve">家长你好，今天李宇惠的物理课学习的重点是平抛运动，孩子中午一共听了129分钟的直播课程，非常好/:strong~然后作业已经改完了，今天的内容都吸收了，得了100分[Yeah!] </t>
+  </si>
+  <si>
+    <t>徐红惠</t>
+  </si>
+  <si>
+    <t xml:space="preserve">家长你好，今天徐红惠的物理课学习的重点是平抛运动，孩子中午一共听了129分钟的直播课程，非常好/:strong~但是作业还没完成，及时在APP内提交一下，我帮孩子批改/:moon </t>
+  </si>
+  <si>
+    <t>李秀霞</t>
+  </si>
+  <si>
+    <t xml:space="preserve">家长你好，今天李秀霞的物理课学习的重点是平抛运动，孩子中午一共听了129分钟的直播课程，非常好/:strong~然后作业已经改完了，但是错的比较多，明天课前15min按时来听习题讲解[Smart] </t>
+  </si>
+  <si>
+    <t>申思雨</t>
+  </si>
+  <si>
+    <t xml:space="preserve">家长你好，今天申思雨的物理课学习的重点是平抛运动，孩子中午一共听了128分钟的直播课程，非常好/:strong~但是作业还没完成，及时在APP内提交一下，我帮孩子批改/:moon </t>
+  </si>
+  <si>
+    <t>刘博芝</t>
+  </si>
+  <si>
+    <t xml:space="preserve">家长你好，今天刘博芝的物理课学习的重点是平抛运动，孩子中午一共听了128分钟的直播课程，非常好/:strong~然后作业已经改完了，但是错的比较多，明天课前15min按时来听习题讲解[Smart] </t>
+  </si>
+  <si>
+    <t>马苗苗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">家长你好，今天马苗苗的物理课学习的重点是平抛运动，孩子中午一共听了128分钟的直播课程，非常好/:strong~但是作业还没完成，及时在APP内提交一下，我帮孩子批改/:moon </t>
+  </si>
+  <si>
+    <t>孙红梅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">家长你好，今天孙红梅的物理课学习的重点是平抛运动，孩子中午一共听了127分钟的直播课程，非常好/:strong~然后作业已经改完了，今天的内容都吸收了，得了75分[Yeah!] </t>
+  </si>
+  <si>
+    <t>黄颖琦</t>
+  </si>
+  <si>
+    <t xml:space="preserve">家长你好，今天黄颖琦的物理课学习的重点是平抛运动，孩子中午一共听了126分钟的直播课程，非常好/:strong~但是作业还没完成，及时在APP内提交一下，我帮孩子批改/:moon </t>
+  </si>
+  <si>
+    <t>汪舒毅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">家长你好，今天汪舒毅的物理课学习的重点是平抛运动，孩子中午一共听了126分钟的直播课程，非常好/:strong~然后作业已经改完了，今天的内容都吸收了，得了75分[Yeah!] </t>
+  </si>
+  <si>
+    <t>马俊</t>
+  </si>
+  <si>
+    <t xml:space="preserve">家长你好，今天马俊的物理课学习的重点是平抛运动，孩子中午一共听了126分钟的直播课程，非常好/:strong~但是作业还没完成，及时在APP内提交一下，我帮孩子批改/:moon </t>
+  </si>
+  <si>
+    <t>杨瑜涵</t>
+  </si>
+  <si>
+    <t xml:space="preserve">家长你好，今天杨瑜涵的物理课学习的重点是平抛运动，孩子中午一共听了125分钟的直播课程，非常好/:strong~然后作业已经改完了，今天的内容都吸收了，得了75分[Yeah!] </t>
+  </si>
+  <si>
+    <t>刘雨</t>
+  </si>
+  <si>
+    <t xml:space="preserve">家长你好，今天刘雨的物理课学习的重点是平抛运动，孩子中午一共听了124分钟的直播课程，非常好/:strong~但是作业还没完成，及时在APP内提交一下，我帮孩子批改/:moon </t>
+  </si>
+  <si>
+    <t>刘颖洁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">家长你好，今天刘颖洁的物理课学习的重点是平抛运动，孩子中午一共听了124分钟的直播课程，非常好/:strong~但是作业还没完成，及时在APP内提交一下，我帮孩子批改/:moon </t>
+  </si>
+  <si>
+    <t>邢瑛</t>
+  </si>
+  <si>
+    <t xml:space="preserve">家长你好，今天邢瑛的物理课学习的重点是平抛运动，孩子中午一共听了123分钟的直播课程，非常好/:strong~然后作业已经改完了，今天的内容都吸收了，得了50分[Yeah!] </t>
+  </si>
+  <si>
+    <t>杨欣娴</t>
+  </si>
+  <si>
+    <t xml:space="preserve">家长你好，今天杨欣娴的物理课学习的重点是平抛运动，孩子中午一共听了122分钟的直播课程，非常好/:strong~然后作业已经改完了，今天的内容都吸收了，得了100分[Yeah!] </t>
+  </si>
+  <si>
+    <t>郭淼</t>
+  </si>
+  <si>
+    <t xml:space="preserve">家长你好，今天郭淼的物理课学习的重点是平抛运动，孩子中午一共听了122分钟的直播课程，非常好/:strong~然后作业已经改完了，今天的内容都吸收了，得了75分[Yeah!] </t>
+  </si>
+  <si>
+    <t>周晨</t>
+  </si>
+  <si>
+    <t xml:space="preserve">家长你好，今天周晨的物理课学习的重点是平抛运动，孩子中午一共听了121分钟的直播课程，非常好/:strong~但是作业还没完成，及时在APP内提交一下，我帮孩子批改/:moon </t>
+  </si>
+  <si>
+    <t>邱冰</t>
+  </si>
+  <si>
+    <t xml:space="preserve">家长你好，今天邱冰的物理课学习的重点是平抛运动，孩子中午一共听了120分钟的直播课程，非常好/:strong~然后作业已经改完了，今天的内容都吸收了，得了50分[Yeah!] </t>
+  </si>
+  <si>
+    <t>刘宇航</t>
+  </si>
+  <si>
+    <t xml:space="preserve">家长你好，今天刘宇航的物理课学习的重点是平抛运动，孩子中午一共听了120分钟的直播课程，非常好/:strong~但是作业还没完成，及时在APP内提交一下，我帮孩子批改/:moon </t>
+  </si>
+  <si>
+    <t>高颖</t>
+  </si>
+  <si>
+    <t xml:space="preserve">家长你好，今天高颖的物理课学习的重点是平抛运动，孩子中午一共听了119分钟的直播课程，非常好/:strong~然后作业已经改完了，今天的内容都吸收了，得了75分[Yeah!] </t>
   </si>
   <si>
     <t>董子涵</t>
   </si>
   <si>
-    <t>家长你好，和您反馈一下董子涵的物理学习情况：今天学习的是功和功率，一共听了130分钟的直播课程，继续保持~然后作业已经改完了，但是没有及格，图像比较重要，如果有知识盲区一定要解决^_^</t>
-  </si>
-  <si>
-    <t>张雪婷</t>
-  </si>
-  <si>
-    <t>家长你好，和您反馈一下张雪婷的物理学习情况：今天学习的是功和功率，一共听了127分钟的直播课程，继续保持~然后作业已经改完了，但是没有及格，图像比较重要，如果有知识盲区一定要解决^_^</t>
-  </si>
-  <si>
-    <t>郭淼</t>
-  </si>
-  <si>
-    <t>家长你好，和您反馈一下郭淼的物理学习情况：今天学习的是功和功率，一共听了129分钟的直播课程，继续保持~然后作业已经改完了，掌握的很不错，得了75分，加油~^_^</t>
-  </si>
-  <si>
-    <t>邢瑛</t>
-  </si>
-  <si>
-    <t>家长你好，和您反馈一下邢瑛的物理学习情况：今天学习的是功和功率，一共听了130分钟的直播课程，继续保持~然后作业已经改完了，但是没有及格，图像比较重要，如果有知识盲区一定要解决^_^</t>
-  </si>
-  <si>
-    <t>张紫红</t>
-  </si>
-  <si>
-    <t>家长你好，和您反馈一下张紫红的物理学习情况：今天学习的是功和功率，一共听了128分钟的直播课程，继续保持~然后作业已经改完了，掌握的很不错，得了75分，加油~^_^</t>
-  </si>
-  <si>
-    <t>尹思源</t>
-  </si>
-  <si>
-    <t>家长你好，和您反馈一下尹思源的物理学习情况：今天学习的是功和功率，中午可能来晚了，只听了86分钟的直播课程，剩下的可以看一下回放~然后作业已经改完了，但是没有及格，图像比较重要，如果有知识盲区一定要解决^_^</t>
+    <t xml:space="preserve">家长你好，今天董子涵的物理课学习的重点是平抛运动，孩子中午一共听了118分钟的直播课程，非常好/:strong~然后作业已经改完了，今天的内容都吸收了，得了50分[Yeah!] </t>
+  </si>
+  <si>
+    <t>车乐</t>
+  </si>
+  <si>
+    <t xml:space="preserve">家长你好，今天车乐的物理课学习的重点是平抛运动，孩子中午一共听了115分钟的直播课程，非常好/:strong~但是作业还没完成，及时在APP内提交一下，我帮孩子批改/:moon </t>
+  </si>
+  <si>
+    <t>史嘉鑫</t>
+  </si>
+  <si>
+    <t xml:space="preserve">家长你好，今天史嘉鑫的物理课学习的重点是平抛运动，孩子中午一共听了111分钟的直播课程，非常好/:strong~但是作业还没完成，及时在APP内提交一下，我帮孩子批改/:moon </t>
+  </si>
+  <si>
+    <t>杰参罗布</t>
+  </si>
+  <si>
+    <t xml:space="preserve">家长你好，今天杰参罗布的物理课学习的重点是平抛运动，孩子中午一共听了111分钟的直播课程，非常好/:strong~但是作业还没完成，及时在APP内提交一下，我帮孩子批改/:moon </t>
   </si>
   <si>
     <t>宋天宇</t>
   </si>
   <si>
-    <t>家长你好，和您反馈一下宋天宇的物理学习情况：今天学习的是功和功率，中午可能来晚了，只听了82分钟的直播课程，剩下的可以看一下回放~然后作业还没有提交，尽量在今天完成^_^</t>
+    <t xml:space="preserve">家长你好，今天宋天宇的物理课学习的重点是平抛运动，孩子中午一共听了109分钟的直播课程，非常好/:strong~但是作业还没完成，及时在APP内提交一下，我帮孩子批改/:moon </t>
+  </si>
+  <si>
+    <t>陈九洲</t>
+  </si>
+  <si>
+    <t xml:space="preserve">家长你好，今天陈九洲的物理课学习的重点是平抛运动，孩子中午一共听了102分钟的直播课程，非常好/:strong~然后作业已经改完了，今天的内容都吸收了，得了100分[Yeah!] </t>
+  </si>
+  <si>
+    <t>陈敬宇</t>
+  </si>
+  <si>
+    <t xml:space="preserve">家长你好，今天陈敬宇的物理课学习的重点是平抛运动，孩子中午没有坚持听完，只听了99分钟的直播课程，剩下的尽快补一下回放，千万不要影响明天的课程~但是作业还没完成，及时在APP内提交一下，我帮孩子批改/:moon </t>
+  </si>
+  <si>
+    <t>孔思佳</t>
+  </si>
+  <si>
+    <t xml:space="preserve">家长你好，今天孔思佳的物理课学习的重点是平抛运动，孩子中午没有坚持听完，只听了96分钟的直播课程，剩下的尽快补一下回放，千万不要影响明天的课程~然后作业已经改完了，今天的内容都吸收了，得了100分[Yeah!] </t>
+  </si>
+  <si>
+    <t>李鑫祥</t>
+  </si>
+  <si>
+    <t xml:space="preserve">家长你好，今天李鑫祥的物理课学习的重点是平抛运动，孩子中午没有坚持听完，只听了93分钟的直播课程，剩下的尽快补一下回放，千万不要影响明天的课程~但是作业还没完成，及时在APP内提交一下，我帮孩子批改/:moon </t>
+  </si>
+  <si>
+    <t>查格西</t>
+  </si>
+  <si>
+    <t xml:space="preserve">家长你好，今天查格西的物理课学习的重点是平抛运动，孩子中午没有坚持听完，只听了93分钟的直播课程，剩下的尽快补一下回放，千万不要影响明天的课程~但是作业还没完成，及时在APP内提交一下，我帮孩子批改/:moon </t>
   </si>
   <si>
     <t>崔菁菁</t>
   </si>
   <si>
-    <t>家长你好，和您反馈一下崔菁菁的物理学习情况：今天学习的是功和功率，一共听了129分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>李宇惠</t>
-  </si>
-  <si>
-    <t>家长你好，和您反馈一下李宇惠的物理学习情况：今天学习的是功和功率，一共听了130分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>刘雨</t>
-  </si>
-  <si>
-    <t>家长你好，和您反馈一下刘雨的物理学习情况：今天学习的是功和功率，一共听了128分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>杰参罗布</t>
-  </si>
-  <si>
-    <t>家长你好，和您反馈一下杰参罗布的物理学习情况：今天学习的是功和功率，中午可能来晚了，只听了20分钟的直播课程，剩下的可以看一下回放~然后作业还没有提交，尽量在今天完成^_^</t>
+    <t xml:space="preserve">家长你好，今天崔菁菁的物理课学习的重点是平抛运动，孩子中午没有坚持听完，只听了86分钟的直播课程，剩下的尽快补一下回放，千万不要影响明天的课程~然后作业已经改完了，今天的内容都吸收了，得了50分[Yeah!] </t>
+  </si>
+  <si>
+    <t>王森</t>
+  </si>
+  <si>
+    <t xml:space="preserve">家长你好，今天王森的物理课学习的重点是平抛运动，孩子中午没有坚持听完，只听了84分钟的直播课程，剩下的尽快补一下回放，千万不要影响明天的课程~但是作业还没完成，及时在APP内提交一下，我帮孩子批改/:moon </t>
+  </si>
+  <si>
+    <t>邓宇晴</t>
+  </si>
+  <si>
+    <t xml:space="preserve">家长你好，今天邓宇晴的物理课学习的重点是平抛运动，孩子中午没有坚持听完，只听了80分钟的直播课程，剩下的尽快补一下回放，千万不要影响明天的课程~但是作业还没完成，及时在APP内提交一下，我帮孩子批改/:moon </t>
   </si>
   <si>
     <t>张敏</t>
   </si>
   <si>
-    <t>家长你好，和您反馈一下张敏的物理学习情况：今天学习的是功和功率，一共听了130分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>周月婷</t>
-  </si>
-  <si>
-    <t>家长你好，和您反馈一下周月婷的物理学习情况：今天学习的是功和功率，中午可能来晚了，只听了69分钟的直播课程，剩下的可以看一下回放~然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>陈钰林</t>
-  </si>
-  <si>
-    <t>家长你好，和您反馈一下陈钰林的物理学习情况：今天学习的是功和功率，一共听了128分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>祁昀玮</t>
-  </si>
-  <si>
-    <t>家长你好，和您反馈一下祁昀玮的物理学习情况：今天学习的是功和功率，一共听了130分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>李鑫祥</t>
-  </si>
-  <si>
-    <t>家长你好，和您反馈一下李鑫祥的物理学习情况：今天学习的是功和功率，一共听了102分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>张琰</t>
-  </si>
-  <si>
-    <t>家长你好，和您反馈一下张琰的物理学习情况：今天学习的是功和功率，一共听了128分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>申思雨</t>
-  </si>
-  <si>
-    <t>家长你好，和您反馈一下申思雨的物理学习情况：今天学习的是功和功率，一共听了130分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>王森</t>
-  </si>
-  <si>
-    <t>家长你好，和您反馈一下王森的物理学习情况：今天学习的是功和功率，一共听了106分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>杨瑜涵</t>
-  </si>
-  <si>
-    <t>家长你好，和您反馈一下杨瑜涵的物理学习情况：今天学习的是功和功率，一共听了124分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>孙红梅</t>
-  </si>
-  <si>
-    <t>家长你好，和您反馈一下孙红梅的物理学习情况：今天学习的是功和功率，一共听了127分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>汪舒毅</t>
-  </si>
-  <si>
-    <t>家长你好，和您反馈一下汪舒毅的物理学习情况：今天学习的是功和功率，一共听了130分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>刘博芝</t>
-  </si>
-  <si>
-    <t>家长你好，和您反馈一下刘博芝的物理学习情况：今天学习的是功和功率，一共听了125分钟的直播课程，继续保持~然后作业已经改完了，但是没有及格，图像比较重要，如果有知识盲区一定要解决^_^</t>
-  </si>
-  <si>
-    <t>兰欣悦</t>
-  </si>
-  <si>
-    <t>家长你好，和您反馈一下兰欣悦的物理学习情况：今天学习的是功和功率，一共听了130分钟的直播课程，继续保持~然后作业已经改完了，掌握的很不错，得了75分，加油~^_^</t>
-  </si>
-  <si>
-    <t>张鹏军</t>
-  </si>
-  <si>
-    <t>家长你好，和您反馈一下张鹏军的物理学习情况：今天学习的是功和功率，一共听了130分钟的直播课程，继续保持~然后作业已经改完了，但是没有及格，图像比较重要，如果有知识盲区一定要解决^_^</t>
-  </si>
-  <si>
-    <t>杨欣娴</t>
-  </si>
-  <si>
-    <t>家长你好，和您反馈一下杨欣娴的物理学习情况：今天学习的是功和功率，一共听了128分钟的直播课程，继续保持~然后作业已经改完了，掌握的很不错，得了100分，加油~^_^</t>
-  </si>
-  <si>
-    <t>邱冰</t>
-  </si>
-  <si>
-    <t>家长你好，和您反馈一下邱冰的物理学习情况：今天学习的是功和功率，一共听了130分钟的直播课程，继续保持~然后作业已经改完了，但是没有及格，图像比较重要，如果有知识盲区一定要解决^_^</t>
-  </si>
-  <si>
-    <t>袁紫玉</t>
-  </si>
-  <si>
-    <t>家长你好，和您反馈一下袁紫玉的物理学习情况：今天学习的是功和功率，一共听了130分钟的直播课程，继续保持~然后作业已经改完了，掌握的很不错，得了100分，加油~^_^</t>
+    <t xml:space="preserve">家长你好，今天张敏的物理课学习的重点是平抛运动，孩子中午没有坚持听完，只听了78分钟的直播课程，剩下的尽快补一下回放，千万不要影响明天的课程~但是作业还没完成，及时在APP内提交一下，我帮孩子批改/:moon </t>
+  </si>
+  <si>
+    <t>祝鑫鋆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">家长你好，今天祝鑫鋆的物理课学习的重点是平抛运动，孩子中午没有坚持听完，只听了71分钟的直播课程，剩下的尽快补一下回放，千万不要影响明天的课程~但是作业还没完成，及时在APP内提交一下，我帮孩子批改/:moon </t>
+  </si>
+  <si>
+    <t>王籽硕</t>
+  </si>
+  <si>
+    <t xml:space="preserve">家长你好，今天王籽硕的物理课学习的重点是平抛运动，孩子中午没有坚持听完，只听了66分钟的直播课程，剩下的尽快补一下回放，千万不要影响明天的课程~但是作业还没完成，及时在APP内提交一下，我帮孩子批改/:moon </t>
+  </si>
+  <si>
+    <t>范紫萱</t>
+  </si>
+  <si>
+    <t xml:space="preserve">家长你好，今天范紫萱的物理课学习的重点是平抛运动，孩子中午没有坚持听完，只听了56分钟的直播课程，剩下的尽快补一下回放，千万不要影响明天的课程~然后作业已经改完了，今天的内容都吸收了，得了100分[Yeah!] </t>
+  </si>
+  <si>
+    <t>刘家欣</t>
+  </si>
+  <si>
+    <t xml:space="preserve">家长你好，今天刘家欣的物理课学习的重点是平抛运动，孩子中午没有坚持听完，只听了43分钟的直播课程，剩下的尽快补一下回放，千万不要影响明天的课程~但是作业还没完成，及时在APP内提交一下，我帮孩子批改/:moon </t>
+  </si>
+  <si>
+    <t>课程id</t>
+  </si>
+  <si>
+    <t>小班id</t>
+  </si>
+  <si>
+    <t>学员uin</t>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>144115214382726152</t>
+  </si>
+  <si>
+    <t>3025076255</t>
+  </si>
+  <si>
+    <t>黄轩</t>
+  </si>
+  <si>
+    <t>144115213935864015</t>
+  </si>
+  <si>
+    <t>夏天</t>
+  </si>
+  <si>
+    <t>1242197425</t>
+  </si>
+  <si>
+    <t>144115213783724290</t>
+  </si>
+  <si>
+    <t>144115213939723867</t>
+  </si>
+  <si>
+    <t>董松华</t>
+  </si>
+  <si>
+    <t>144115213635331595</t>
+  </si>
+  <si>
+    <t>144115213592531328</t>
+  </si>
+  <si>
+    <t>2160689626</t>
+  </si>
+  <si>
+    <t>144115212116906545</t>
+  </si>
+  <si>
+    <t>144115214458369858</t>
+  </si>
+  <si>
+    <t>刘彦</t>
+  </si>
+  <si>
+    <t>1621936524</t>
+  </si>
+  <si>
+    <t>144115211266508056</t>
+  </si>
+  <si>
+    <t>赵琳</t>
+  </si>
+  <si>
+    <t>144115214782545336</t>
+  </si>
+  <si>
+    <t>144115214716581103</t>
+  </si>
+  <si>
+    <t>144115213411457658</t>
+  </si>
+  <si>
+    <t>罗蕴真</t>
+  </si>
+  <si>
+    <t>144115214061862574</t>
+  </si>
+  <si>
+    <t>颜乔伊</t>
+  </si>
+  <si>
+    <t>144115213761092831</t>
+  </si>
+  <si>
+    <t>落樱</t>
+  </si>
+  <si>
+    <t>1169337971</t>
+  </si>
+  <si>
+    <t>1318244912</t>
+  </si>
+  <si>
+    <t>144115212768011339</t>
+  </si>
+  <si>
+    <t>144115215320619986</t>
+  </si>
+  <si>
+    <t>孙洋</t>
+  </si>
+  <si>
+    <t>144115215407458487</t>
+  </si>
+  <si>
+    <t>刘湘珺</t>
+  </si>
+  <si>
+    <t>144115213738430796</t>
+  </si>
+  <si>
+    <t>李卓蔓</t>
+  </si>
+  <si>
+    <t>144115213612730082</t>
+  </si>
+  <si>
+    <t>144115213824393310</t>
+  </si>
+  <si>
+    <t>1411386023</t>
+  </si>
+  <si>
+    <t>冯梦瑶</t>
+  </si>
+  <si>
+    <t>2801935472</t>
+  </si>
+  <si>
+    <t>石津铭</t>
+  </si>
+  <si>
+    <t>1368499537</t>
+  </si>
+  <si>
+    <t>凌潇楠</t>
+  </si>
+  <si>
+    <t>1713019685</t>
+  </si>
+  <si>
+    <t>144115214072571201</t>
+  </si>
+  <si>
+    <t>144115212978168860</t>
+  </si>
+  <si>
+    <t>144115213820518802</t>
+  </si>
+  <si>
+    <t>吴琪</t>
+  </si>
+  <si>
+    <t>144115214082121417</t>
+  </si>
+  <si>
+    <t>144115213586653647</t>
+  </si>
+  <si>
+    <t>周玲聿</t>
+  </si>
+  <si>
+    <t>2935128039</t>
   </si>
   <si>
     <t>景嘉锐</t>
   </si>
   <si>
-    <t>家长你好，和您反馈一下景嘉锐的物理学习情况：今天学习的是功和功率，中午可能来晚了，只听了48分钟的直播课程，剩下的可以看一下回放~然后作业已经改完了，但是没有及格，图像比较重要，如果有知识盲区一定要解决^_^</t>
-  </si>
-  <si>
-    <t>张宇</t>
-  </si>
-  <si>
-    <t>家长你好，和您反馈一下张宇的物理学习情况：今天学习的是功和功率，一共听了130分钟的直播课程，继续保持~然后作业已经改完了，掌握的很不错，得了100分，加油~^_^</t>
-  </si>
-  <si>
-    <t>张宇轩</t>
-  </si>
-  <si>
-    <t>家长你好，和您反馈一下张宇轩的物理学习情况：今天学习的是功和功率，一共听了130分钟的直播课程，继续保持~然后作业已经改完了，掌握的很不错，得了100分，加油~^_^</t>
-  </si>
-  <si>
-    <t>车乐</t>
-  </si>
-  <si>
-    <t>家长你好，和您反馈一下车乐的物理学习情况：今天学习的是功和功率，中午可能来晚了，只听了84分钟的直播课程，剩下的可以看一下回放~然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>冯梦瑶</t>
-  </si>
-  <si>
-    <t>家长你好，和您反馈一下冯梦瑶的物理学习情况：今天学习的是功和功率，一共听了111分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>刘宇航</t>
-  </si>
-  <si>
-    <t>家长你好，和您反馈一下刘宇航的物理学习情况：今天学习的是功和功率，一共听了130分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>马苗苗</t>
-  </si>
-  <si>
-    <t>家长你好，和您反馈一下马苗苗的物理学习情况：今天学习的是功和功率，一共听了128分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>刘家欣</t>
-  </si>
-  <si>
-    <t>家长你好，和您反馈一下刘家欣的物理学习情况：今天学习的是功和功率，中午可能来晚了，只听了44分钟的直播课程，剩下的可以看一下回放~然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>孔思佳</t>
-  </si>
-  <si>
-    <t>家长你好，和您反馈一下孔思佳的物理学习情况：今天学习的是功和功率，中午可能来晚了，只听了89分钟的直播课程，剩下的可以看一下回放~然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>陈九洲</t>
-  </si>
-  <si>
-    <t>家长你好，和您反馈一下陈九洲的物理学习情况：今天学习的是功和功率，中午可能来晚了，只听了97分钟的直播课程，剩下的可以看一下回放~然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>李卓蔓</t>
-  </si>
-  <si>
-    <t>家长你好，和您反馈一下李卓蔓的物理学习情况：今天学习的是功和功率，中午可能来晚了，只听了20分钟的直播课程，剩下的可以看一下回放~然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>杨婧</t>
-  </si>
-  <si>
-    <t>家长你好，和您反馈一下杨婧的物理学习情况：今天学习的是功和功率，一共听了129分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>祝鑫鋆</t>
-  </si>
-  <si>
-    <t>家长你好，和您反馈一下祝鑫鋆的物理学习情况：今天学习的是功和功率，中午可能来晚了，只听了90分钟的直播课程，剩下的可以看一下回放~然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>刘颖洁</t>
-  </si>
-  <si>
-    <t>家长你好，和您反馈一下刘颖洁的物理学习情况：今天学习的是功和功率，一共听了130分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>范紫萱</t>
-  </si>
-  <si>
-    <t>家长你好，和您反馈一下范紫萱的物理学习情况：今天学习的是功和功率，一共听了108分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>章灵</t>
-  </si>
-  <si>
-    <t>家长你好，和您反馈一下章灵的物理学习情况：今天学习的是功和功率，一共听了130分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>周晨</t>
-  </si>
-  <si>
-    <t>家长你好，和您反馈一下周晨的物理学习情况：今天学习的是功和功率，一共听了102分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
+    <t>144115213826166370</t>
+  </si>
+  <si>
+    <t>郭君仪</t>
+  </si>
+  <si>
+    <t>144115214939978469</t>
+  </si>
+  <si>
+    <t>144115214048108265</t>
+  </si>
+  <si>
+    <t>144115214634521142</t>
+  </si>
+  <si>
+    <t>144115215273717788</t>
+  </si>
+  <si>
+    <t>144115214743714411</t>
+  </si>
+  <si>
+    <t>144115215393609046</t>
+  </si>
+  <si>
+    <t>144115215303923118</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>144115211234291905</t>
+  </si>
+  <si>
+    <t>144115214765650657</t>
   </si>
   <si>
     <t>安润泽</t>
   </si>
   <si>
-    <t>家长你好，和您反馈一下安润泽的物理学习情况：今天学习的是功和功率，一共听了130分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>史嘉鑫</t>
-  </si>
-  <si>
-    <t>家长你好，和您反馈一下史嘉鑫的物理学习情况：今天学习的是功和功率，一共听了130分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>海溶哲</t>
-  </si>
-  <si>
-    <t>家长你好，和您反馈一下海溶哲的物理学习情况：今天学习的是功和功率，一共听了126分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>马俊</t>
-  </si>
-  <si>
-    <t>家长你好，和您反馈一下马俊的物理学习情况：今天学习的是功和功率，一共听了130分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>李秀霞</t>
-  </si>
-  <si>
-    <t>家长你好，和您反馈一下李秀霞的物理学习情况：今天学习的是功和功率，一共听了130分钟的直播课程，继续保持~然后作业还没有提交，尽量在今天完成^_^</t>
+    <t>144115215324722862</t>
+  </si>
+  <si>
+    <t>车海博</t>
+  </si>
+  <si>
+    <t>144115214640617540</t>
+  </si>
+  <si>
+    <t>144115215444317919</t>
   </si>
   <si>
     <t>蔡雨晴</t>
-  </si>
-  <si>
-    <t>家长你好，和您反馈一下蔡雨晴的物理学习情况：今天学习的是功和功率，中午可能来晚了，只听了1分钟的直播课程，剩下的可以看一下回放~然后作业还没有提交，尽量在今天完成^_^</t>
-  </si>
-  <si>
-    <t>课程id</t>
-  </si>
-  <si>
-    <t>小班id</t>
-  </si>
-  <si>
-    <t>学员uin</t>
-  </si>
-  <si>
-    <t>姓名</t>
-  </si>
-  <si>
-    <t>144115214382726152</t>
-  </si>
-  <si>
-    <t>3025076255</t>
-  </si>
-  <si>
-    <t>黄轩</t>
-  </si>
-  <si>
-    <t>144115213935864015</t>
-  </si>
-  <si>
-    <t>夏天</t>
-  </si>
-  <si>
-    <t>1242197425</t>
-  </si>
-  <si>
-    <t>144115213783724290</t>
-  </si>
-  <si>
-    <t>144115213939723867</t>
-  </si>
-  <si>
-    <t>董松华</t>
-  </si>
-  <si>
-    <t>144115213635331595</t>
-  </si>
-  <si>
-    <t>144115213592531328</t>
-  </si>
-  <si>
-    <t>2160689626</t>
-  </si>
-  <si>
-    <t>144115212116906545</t>
-  </si>
-  <si>
-    <t>144115214458369858</t>
-  </si>
-  <si>
-    <t>刘彦</t>
-  </si>
-  <si>
-    <t>1621936524</t>
-  </si>
-  <si>
-    <t>王籽硕</t>
-  </si>
-  <si>
-    <t>144115211266508056</t>
-  </si>
-  <si>
-    <t>赵琳</t>
-  </si>
-  <si>
-    <t>144115214782545336</t>
-  </si>
-  <si>
-    <t>144115214716581103</t>
-  </si>
-  <si>
-    <t>144115213411457658</t>
-  </si>
-  <si>
-    <t>罗蕴真</t>
-  </si>
-  <si>
-    <t>144115214061862574</t>
-  </si>
-  <si>
-    <t>颜乔伊</t>
-  </si>
-  <si>
-    <t>144115213761092831</t>
-  </si>
-  <si>
-    <t>落樱</t>
-  </si>
-  <si>
-    <t>1169337971</t>
-  </si>
-  <si>
-    <t>1318244912</t>
-  </si>
-  <si>
-    <t>144115212768011339</t>
-  </si>
-  <si>
-    <t>高颖</t>
-  </si>
-  <si>
-    <t>144115215320619986</t>
-  </si>
-  <si>
-    <t>孙洋</t>
-  </si>
-  <si>
-    <t>144115215407458487</t>
-  </si>
-  <si>
-    <t>刘湘珺</t>
-  </si>
-  <si>
-    <t>144115213738430796</t>
-  </si>
-  <si>
-    <t>144115213612730082</t>
-  </si>
-  <si>
-    <t>144115213824393310</t>
-  </si>
-  <si>
-    <t>1411386023</t>
-  </si>
-  <si>
-    <t>2801935472</t>
-  </si>
-  <si>
-    <t>石津铭</t>
-  </si>
-  <si>
-    <t>1368499537</t>
-  </si>
-  <si>
-    <t>凌潇楠</t>
-  </si>
-  <si>
-    <t>1713019685</t>
-  </si>
-  <si>
-    <t>144115214072571201</t>
-  </si>
-  <si>
-    <t>邓宇晴</t>
-  </si>
-  <si>
-    <t>144115212978168860</t>
-  </si>
-  <si>
-    <t>144115213820518802</t>
-  </si>
-  <si>
-    <t>吴琪</t>
-  </si>
-  <si>
-    <t>144115214082121417</t>
-  </si>
-  <si>
-    <t>144115213586653647</t>
-  </si>
-  <si>
-    <t>周玲聿</t>
-  </si>
-  <si>
-    <t>2935128039</t>
-  </si>
-  <si>
-    <t>144115213826166370</t>
-  </si>
-  <si>
-    <t>郭君仪</t>
-  </si>
-  <si>
-    <t>144115214939978469</t>
-  </si>
-  <si>
-    <t>144115214048108265</t>
-  </si>
-  <si>
-    <t>144115214634521142</t>
-  </si>
-  <si>
-    <t>144115215273717788</t>
-  </si>
-  <si>
-    <t>144115214743714411</t>
-  </si>
-  <si>
-    <t>144115215393609046</t>
-  </si>
-  <si>
-    <t>徐红惠</t>
-  </si>
-  <si>
-    <t>144115215303923118</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>144115211234291905</t>
-  </si>
-  <si>
-    <t>查格西</t>
-  </si>
-  <si>
-    <t>144115214765650657</t>
-  </si>
-  <si>
-    <t>144115215324722862</t>
-  </si>
-  <si>
-    <t>车海博</t>
-  </si>
-  <si>
-    <t>144115214640617540</t>
-  </si>
-  <si>
-    <t>144115215444317919</t>
   </si>
   <si>
     <t>144115213157853485</t>
@@ -612,11 +617,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -643,11 +648,17 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -655,9 +666,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -665,13 +676,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -686,7 +690,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -716,9 +727,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -733,22 +759,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -763,17 +782,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -799,7 +811,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -811,31 +889,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -847,7 +937,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -865,49 +967,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -919,61 +979,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1004,11 +1016,74 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1028,69 +1103,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1104,94 +1116,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1200,56 +1212,56 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1260,6 +1272,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1334,647 +1347,6 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="uidAndWxid"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="C1" t="str">
-            <v>学员uin</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>姓名</v>
-          </cell>
-          <cell r="E1" t="str">
-            <v>wxid</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="C2" t="str">
-            <v>144115214382726152</v>
-          </cell>
-          <cell r="D2" t="str">
-            <v>范紫萱</v>
-          </cell>
-          <cell r="E2" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="C3" t="str">
-            <v>3025076255</v>
-          </cell>
-          <cell r="D3" t="str">
-            <v>黄轩</v>
-          </cell>
-          <cell r="E3" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="C4" t="str">
-            <v>144115213935864015</v>
-          </cell>
-          <cell r="D4" t="str">
-            <v>夏天</v>
-          </cell>
-          <cell r="E4" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="C5" t="str">
-            <v>1242197425</v>
-          </cell>
-          <cell r="D5" t="str">
-            <v>张宇轩</v>
-          </cell>
-          <cell r="E5" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="C6" t="str">
-            <v>144115213783724290</v>
-          </cell>
-          <cell r="D6" t="str">
-            <v>袁紫玉</v>
-          </cell>
-          <cell r="E6" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7" t="str">
-            <v>144115213939723867</v>
-          </cell>
-          <cell r="D7" t="str">
-            <v>董松华</v>
-          </cell>
-          <cell r="E7" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8" t="str">
-            <v>144115213635331595</v>
-          </cell>
-          <cell r="D8" t="str">
-            <v>陈九洲</v>
-          </cell>
-          <cell r="E8" t="str">
-            <v>wxid_m3qo6txxs6g322</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="C9" t="str">
-            <v>144115213592531328</v>
-          </cell>
-          <cell r="D9" t="str">
-            <v>兰欣悦</v>
-          </cell>
-          <cell r="E9" t="str">
-            <v>wxid_vrboab5zmymo21</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="C10" t="str">
-            <v>2160689626</v>
-          </cell>
-          <cell r="D10" t="str">
-            <v>马苗苗</v>
-          </cell>
-          <cell r="E10" t="str">
-            <v>wxid_cmwlkzgxwvjt22</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="C11" t="str">
-            <v>144115212116906545</v>
-          </cell>
-          <cell r="D11" t="str">
-            <v>张宇</v>
-          </cell>
-          <cell r="E11" t="str">
-            <v>wxid_6vtwqdzu6joh21</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="C12" t="str">
-            <v>144115214458369858</v>
-          </cell>
-          <cell r="D12" t="str">
-            <v>刘彦</v>
-          </cell>
-          <cell r="E12" t="str">
-            <v>wxid_ojr6y6dmgsyd22</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="C13" t="str">
-            <v>1621936524</v>
-          </cell>
-          <cell r="D13" t="str">
-            <v>王籽硕</v>
-          </cell>
-          <cell r="E13" t="str">
-            <v>wxid_bb5o8r0y72jr22</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="C14" t="str">
-            <v>144115211266508056</v>
-          </cell>
-          <cell r="D14" t="str">
-            <v>赵琳</v>
-          </cell>
-          <cell r="E14" t="str">
-            <v>wxid_2epazrpcutvz22</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="C15" t="str">
-            <v>144115214782545336</v>
-          </cell>
-          <cell r="D15" t="str">
-            <v>杨欣娴</v>
-          </cell>
-          <cell r="E15" t="str">
-            <v>wxid_78a2zbfkdteu22</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="C16" t="str">
-            <v>144115214716581103</v>
-          </cell>
-          <cell r="D16" t="str">
-            <v>宋天宇</v>
-          </cell>
-          <cell r="E16" t="str">
-            <v>wxid_9bbqafjr957m22</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="C17" t="str">
-            <v>144115213411457658</v>
-          </cell>
-          <cell r="D17" t="str">
-            <v>罗蕴真</v>
-          </cell>
-          <cell r="E17" t="str">
-            <v>wxid_xfwhxury94ya22</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="C18" t="str">
-            <v>144115214061862574</v>
-          </cell>
-          <cell r="D18" t="str">
-            <v>颜乔伊</v>
-          </cell>
-          <cell r="E18" t="str">
-            <v>wxid_b05siwfkz3bz21</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="C19" t="str">
-            <v>144115213761092831</v>
-          </cell>
-          <cell r="D19" t="str">
-            <v>落樱</v>
-          </cell>
-          <cell r="E19" t="str">
-            <v>wxid_ef7k8yk4d7mm22</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="C20" t="str">
-            <v>1169337971</v>
-          </cell>
-          <cell r="D20" t="str">
-            <v>车乐</v>
-          </cell>
-          <cell r="E20" t="str">
-            <v>wxid_1ydbcaxmco9u21</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="C21" t="str">
-            <v>1318244912</v>
-          </cell>
-          <cell r="D21" t="str">
-            <v>马俊</v>
-          </cell>
-          <cell r="E21" t="str">
-            <v>wxid_55b808800acp22</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="C22" t="str">
-            <v>144115212768011339</v>
-          </cell>
-          <cell r="D22" t="str">
-            <v>高颖</v>
-          </cell>
-          <cell r="E22" t="str">
-            <v>wxid_3hsgn9jikmrv22</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="C23" t="str">
-            <v>144115215320619986</v>
-          </cell>
-          <cell r="D23" t="str">
-            <v>孙洋</v>
-          </cell>
-          <cell r="E23" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="C24" t="str">
-            <v>144115215407458487</v>
-          </cell>
-          <cell r="D24" t="str">
-            <v>刘湘珺</v>
-          </cell>
-          <cell r="E24" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="C25" t="str">
-            <v>144115213738430796</v>
-          </cell>
-          <cell r="D25" t="str">
-            <v>李卓蔓</v>
-          </cell>
-          <cell r="E25" t="str">
-            <v>wxid_e28v6vmgdrmo22</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="C26" t="str">
-            <v>144115213612730082</v>
-          </cell>
-          <cell r="D26" t="str">
-            <v>孔思佳</v>
-          </cell>
-          <cell r="E26" t="str">
-            <v>wxid_ugx6qp6taogz22</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="C27" t="str">
-            <v>144115213824393310</v>
-          </cell>
-          <cell r="D27" t="str">
-            <v>杨婧</v>
-          </cell>
-          <cell r="E27" t="str">
-            <v>wxid_asld4wuqcc0n22</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="C28" t="str">
-            <v>1411386023</v>
-          </cell>
-          <cell r="D28" t="str">
-            <v>冯梦瑶</v>
-          </cell>
-          <cell r="E28" t="str">
-            <v>sunmeiling1124</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="C29" t="str">
-            <v>2801935472</v>
-          </cell>
-          <cell r="D29" t="str">
-            <v>石津铭</v>
-          </cell>
-          <cell r="E29" t="str">
-            <v>wxid_3rl0ps542tu622</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="C30" t="str">
-            <v>1368499537</v>
-          </cell>
-          <cell r="D30" t="str">
-            <v>凌潇楠</v>
-          </cell>
-          <cell r="E30" t="str">
-            <v>wxid_dmzd576s73ya51</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="C31" t="str">
-            <v>1713019685</v>
-          </cell>
-          <cell r="D31" t="str">
-            <v>刘宇航</v>
-          </cell>
-          <cell r="E31" t="str">
-            <v>wxid_ttlve5eatykj12</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="C32" t="str">
-            <v>144115214072571201</v>
-          </cell>
-          <cell r="D32" t="str">
-            <v>邓宇晴</v>
-          </cell>
-          <cell r="E32" t="str">
-            <v>wxid_njvwru09ot9a12</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="C33" t="str">
-            <v>144115212978168860</v>
-          </cell>
-          <cell r="D33" t="str">
-            <v>刘家欣</v>
-          </cell>
-          <cell r="E33" t="str">
-            <v>wxid_rpb2f58jriqm21</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="C34" t="str">
-            <v>144115213820518802</v>
-          </cell>
-          <cell r="D34" t="str">
-            <v>吴琪</v>
-          </cell>
-          <cell r="E34" t="str">
-            <v>wxid_hgdmqhfomfpg12</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="C35" t="str">
-            <v>144115214082121417</v>
-          </cell>
-          <cell r="D35" t="str">
-            <v>刘颖洁</v>
-          </cell>
-          <cell r="E35" t="str">
-            <v>wxid_y8rvjsnd8sqv22</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="C36" t="str">
-            <v>144115213586653647</v>
-          </cell>
-          <cell r="D36" t="str">
-            <v>周玲聿</v>
-          </cell>
-          <cell r="E36" t="str">
-            <v>wxid_d1os6vv94a6w21</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="C37" t="str">
-            <v>2935128039</v>
-          </cell>
-          <cell r="D37" t="str">
-            <v>景嘉锐</v>
-          </cell>
-          <cell r="E37" t="str">
-            <v>wxid_yst3wnysipsr21</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="C38" t="str">
-            <v>144115213826166370</v>
-          </cell>
-          <cell r="D38" t="str">
-            <v>郭君仪</v>
-          </cell>
-          <cell r="E38" t="str">
-            <v>wxid_hcil3vhufhtu12</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="C39" t="str">
-            <v>144115214939978469</v>
-          </cell>
-          <cell r="D39" t="str">
-            <v>刘博芝</v>
-          </cell>
-          <cell r="E39" t="str">
-            <v>wxid_s9qx4yy1dc6p22</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="C40" t="str">
-            <v>144115214048108265</v>
-          </cell>
-          <cell r="D40" t="str">
-            <v>祝鑫鋆</v>
-          </cell>
-          <cell r="E40" t="str">
-            <v>wxid_jr47lw0f03vf22</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="C41" t="str">
-            <v>144115214634521142</v>
-          </cell>
-          <cell r="D41" t="str">
-            <v>章灵</v>
-          </cell>
-          <cell r="E41" t="str">
-            <v>wxid_h8xkda21uk0x22</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="C42" t="str">
-            <v>144115215273717788</v>
-          </cell>
-          <cell r="D42" t="str">
-            <v>史嘉鑫</v>
-          </cell>
-          <cell r="E42" t="str">
-            <v>wxid_v7iioht6v3lm22</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="C43" t="str">
-            <v>144115214743714411</v>
-          </cell>
-          <cell r="D43" t="str">
-            <v>周晨</v>
-          </cell>
-          <cell r="E43" t="str">
-            <v>wxid_xbxiy0zdo7rf22</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="C44" t="str">
-            <v>144115215393609046</v>
-          </cell>
-          <cell r="D44" t="str">
-            <v>徐红惠</v>
-          </cell>
-          <cell r="E44" t="str">
-            <v>wxid_gybxd3t5hvd122</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="C45" t="str">
-            <v>144115215303923118</v>
-          </cell>
-          <cell r="D45" t="str">
-            <v>123</v>
-          </cell>
-          <cell r="E45" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="C46" t="str">
-            <v>144115211234291905</v>
-          </cell>
-          <cell r="D46" t="str">
-            <v>查格西</v>
-          </cell>
-          <cell r="E46" t="str">
-            <v>wxid_7647706476914</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="C47" t="str">
-            <v>144115214765650657</v>
-          </cell>
-          <cell r="D47" t="str">
-            <v>安润泽</v>
-          </cell>
-          <cell r="E47" t="str">
-            <v>wxid_6r3de744y2jn22</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="C48" t="str">
-            <v>144115215324722862</v>
-          </cell>
-          <cell r="D48" t="str">
-            <v>车海博</v>
-          </cell>
-          <cell r="E48" t="str">
-            <v>wxid_pnhol9sk3mqm12</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="C49" t="str">
-            <v>144115214640617540</v>
-          </cell>
-          <cell r="D49" t="str">
-            <v>邱冰</v>
-          </cell>
-          <cell r="E49" t="str">
-            <v>wxid_0uow57aw5bqt22</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="C50" t="str">
-            <v>144115215444317919</v>
-          </cell>
-          <cell r="D50" t="str">
-            <v>蔡雨晴</v>
-          </cell>
-          <cell r="E50" t="str">
-            <v>wxid_2sv169tw9wr822</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="C51" t="str">
-            <v>144115213157853485</v>
-          </cell>
-          <cell r="D51" t="str">
-            <v>海溶哲</v>
-          </cell>
-          <cell r="E51" t="str">
-            <v>wxid_17y9suibqm0021</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="C52" t="str">
-            <v>144115215548604158</v>
-          </cell>
-          <cell r="D52" t="str">
-            <v>王晓慧</v>
-          </cell>
-          <cell r="E52" t="str">
-            <v>wxid_8kuzeuezeouj22</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="C53" t="str">
-            <v>144115215459082662</v>
-          </cell>
-          <cell r="D53" t="str">
-            <v>李春金</v>
-          </cell>
-          <cell r="E53" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="C54" t="str">
-            <v>144115215546161394</v>
-          </cell>
-          <cell r="D54" t="str">
-            <v>王银琴</v>
-          </cell>
-          <cell r="E54" t="str">
-            <v>wxid_tckquvx45xne22</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="C55" t="str">
-            <v>144115215459868694</v>
-          </cell>
-          <cell r="D55" t="str">
-            <v>王玉珏</v>
-          </cell>
-          <cell r="E55" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="C56" t="str">
-            <v>144115215461642399</v>
-          </cell>
-          <cell r="D56" t="str">
-            <v>董莹</v>
-          </cell>
-          <cell r="E56" t="str">
-            <v>wxid_3me8a2t4bbg922</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="C57" t="str">
-            <v>144115215463116777</v>
-          </cell>
-          <cell r="D57" t="str">
-            <v>张鹏军</v>
-          </cell>
-          <cell r="E57" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -8856,10 +8228,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="3"/>
@@ -8886,7 +8258,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3">
-        <v>1.4411521523988e+17</v>
+        <v>1242197425</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>4</v>
@@ -8894,14 +8266,11 @@
       <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="e">
-        <f>VLOOKUP(A2,[1]uidAndWxid!$C:$E,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
+      <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3">
-        <v>1.4411521560051e+17</v>
+        <v>2452286352</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
@@ -8909,14 +8278,11 @@
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3" t="e">
-        <f>VLOOKUP(A3,[1]uidAndWxid!$C:$E,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
+      <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3">
-        <v>1.44115215599897e+17</v>
+        <v>1.44115213783724e+17</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>8</v>
@@ -8924,14 +8290,11 @@
       <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="3" t="e">
-        <f>VLOOKUP(A4,[1]uidAndWxid!$C:$E,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
+      <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3">
-        <v>1.4411521360518e+17</v>
+        <v>1.44115213592531e+17</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>10</v>
@@ -8939,14 +8302,11 @@
       <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="3" t="e">
-        <f>VLOOKUP(A5,[1]uidAndWxid!$C:$E,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
+      <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3">
-        <v>1.44115215591329e+17</v>
+        <v>1.44115215239879e+17</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>12</v>
@@ -8954,14 +8314,11 @@
       <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="3" t="e">
-        <f>VLOOKUP(A6,[1]uidAndWxid!$C:$E,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
+      <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3">
-        <v>2452286352</v>
+        <v>1.44115214634521e+17</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>14</v>
@@ -8969,14 +8326,11 @@
       <c r="C7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="3" t="e">
-        <f>VLOOKUP(A7,[1]uidAndWxid!$C:$E,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
+      <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="3">
-        <v>1.44115215604892e+17</v>
+        <v>1.44115211028107e+17</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>16</v>
@@ -8984,14 +8338,11 @@
       <c r="C8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="3" t="e">
-        <f>VLOOKUP(A8,[1]uidAndWxid!$C:$E,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
+      <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="3">
-        <v>1.44115214716581e+17</v>
+        <v>1.44115213824393e+17</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>18</v>
@@ -8999,14 +8350,11 @@
       <c r="C9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="3" t="e">
-        <f>VLOOKUP(A9,[1]uidAndWxid!$C:$E,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
+      <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="3">
-        <v>1.4411521341754e+17</v>
+        <v>1.44115215510869e+17</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>20</v>
@@ -9014,14 +8362,11 @@
       <c r="C10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="3" t="e">
-        <f>VLOOKUP(A10,[1]uidAndWxid!$C:$E,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
+      <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="3">
-        <v>1.4411521507306e+17</v>
+        <v>1.44115215604891e+17</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>22</v>
@@ -9029,14 +8374,11 @@
       <c r="C11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="3" t="e">
-        <f>VLOOKUP(A11,[1]uidAndWxid!$C:$E,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
+      <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3">
-        <v>2609311635</v>
+        <v>1.44115215507008e+17</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -9047,7 +8389,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3">
-        <v>1.44115215501977e+17</v>
+        <v>1.44115213157853e+17</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>26</v>
@@ -9058,7 +8400,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3">
-        <v>1.44115211788307e+17</v>
+        <v>1.44115215599896e+17</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>28</v>
@@ -9069,7 +8411,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3">
-        <v>1.44115215507008e+17</v>
+        <v>1.44115215463116e+17</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>30</v>
@@ -9080,7 +8422,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3">
-        <v>405551893</v>
+        <v>1.44115212116906e+17</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>32</v>
@@ -9091,7 +8433,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3">
-        <v>1.44115211028108e+17</v>
+        <v>1.44115215073059e+17</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>34</v>
@@ -9102,7 +8444,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3">
-        <v>1.44115215600561e+17</v>
+        <v>1.44115215393609e+17</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>36</v>
@@ -9113,7 +8455,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3">
-        <v>1.44115215510869e+17</v>
+        <v>1.44115215459082e+17</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>38</v>
@@ -9135,7 +8477,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3">
-        <v>1.44115212843665e+17</v>
+        <v>1.44115214939978e+17</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>42</v>
@@ -9146,7 +8488,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3">
-        <v>1.44115212038906e+17</v>
+        <v>2160689626</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>44</v>
@@ -9157,7 +8499,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3">
-        <v>1.44115215514057e+17</v>
+        <v>1.44115215514056e+17</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>46</v>
@@ -9168,7 +8510,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3">
-        <v>1.44115215577371e+17</v>
+        <v>1.44115215546161e+17</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>48</v>
@@ -9179,7 +8521,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3">
-        <v>1.44115214939978e+17</v>
+        <v>1.4411521557737e+17</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>50</v>
@@ -9190,7 +8532,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3">
-        <v>1.44115213592531e+17</v>
+        <v>1318244912</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>52</v>
@@ -9201,7 +8543,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3">
-        <v>1.44115215463117e+17</v>
+        <v>1.44115212038906e+17</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>54</v>
@@ -9212,7 +8554,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="3">
-        <v>1.44115214782545e+17</v>
+        <v>2609311635</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>56</v>
@@ -9223,7 +8565,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3">
-        <v>1.44115214640618e+17</v>
+        <v>1.44115214082121e+17</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>58</v>
@@ -9234,7 +8576,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="3">
-        <v>1.44115213783724e+17</v>
+        <v>1.44115215591328e+17</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>60</v>
@@ -9245,7 +8587,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="3">
-        <v>2935128039</v>
+        <v>1.44115214782545e+17</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>62</v>
@@ -9256,7 +8598,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="3">
-        <v>1.44115212116907e+17</v>
+        <v>1.44115213605179e+17</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>64</v>
@@ -9267,7 +8609,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="3">
-        <v>1242197425</v>
+        <v>1.44115214743714e+17</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>66</v>
@@ -9278,7 +8620,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="3">
-        <v>1169337971</v>
+        <v>1.44115214640617e+17</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>68</v>
@@ -9289,7 +8631,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="3">
-        <v>1411386023</v>
+        <v>1713019685</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>70</v>
@@ -9300,7 +8642,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="3">
-        <v>1713019685</v>
+        <v>1.44115212768011e+17</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>72</v>
@@ -9311,7 +8653,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="3">
-        <v>2160689626</v>
+        <v>1.44115215600509e+17</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>74</v>
@@ -9322,7 +8664,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="3">
-        <v>1.44115212978169e+17</v>
+        <v>1169337971</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>76</v>
@@ -9333,7 +8675,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="3">
-        <v>1.4411521361273e+17</v>
+        <v>1.44115215273717e+17</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>78</v>
@@ -9344,7 +8686,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="3">
-        <v>1.44115213635332e+17</v>
+        <v>1.44115215501976e+17</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>80</v>
@@ -9355,7 +8697,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="3">
-        <v>1.44115213738431e+17</v>
+        <v>1.44115214716581e+17</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>82</v>
@@ -9366,7 +8708,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="3">
-        <v>1.44115213824393e+17</v>
+        <v>1.44115213635331e+17</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>84</v>
@@ -9377,7 +8719,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="3">
-        <v>1.44115214048108e+17</v>
+        <v>1.4411521550944e+17</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>86</v>
@@ -9388,7 +8730,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="3">
-        <v>1.44115214082121e+17</v>
+        <v>1.4411521361273e+17</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>88</v>
@@ -9399,7 +8741,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="3">
-        <v>1.44115214382726e+17</v>
+        <v>1.4411521560056e+17</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>90</v>
@@ -9410,7 +8752,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="3">
-        <v>1.44115214634521e+17</v>
+        <v>1.44115211234291e+17</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>92</v>
@@ -9421,7 +8763,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="3">
-        <v>1.44115214743714e+17</v>
+        <v>1.4411521341754e+17</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>94</v>
@@ -9432,7 +8774,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="3">
-        <v>1.44115214765651e+17</v>
+        <v>1.44115212843665e+17</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>96</v>
@@ -9443,7 +8785,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="3">
-        <v>1.44115215273718e+17</v>
+        <v>1.44115214072571e+17</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>98</v>
@@ -9454,7 +8796,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="3">
-        <v>1.44115213157854e+17</v>
+        <v>1.44115211788306e+17</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>100</v>
@@ -9465,7 +8807,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="3">
-        <v>1318244912</v>
+        <v>1.44115214048108e+17</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>102</v>
@@ -9476,7 +8818,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="3">
-        <v>1.44115215459083e+17</v>
+        <v>1621936524</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>104</v>
@@ -9487,7 +8829,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="3">
-        <v>1.44115215444318e+17</v>
+        <v>1.44115214382726e+17</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>106</v>
@@ -9496,8 +8838,19 @@
         <v>107</v>
       </c>
     </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="3">
+        <v>1.44115212978168e+17</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:B8 B9:B11 B12 B13 B14 B15:B16 B17 B18 B19:B21 B22 B23 B24 B25:B37 B38:B41 B42 B43 B44:B49 B50 B51:B52 B53">
+  <conditionalFormatting sqref="B1">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
@@ -9525,16 +8878,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -9548,13 +8901,13 @@
         <v>40401</v>
       </c>
       <c r="C2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D2" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="E2" t="e">
-        <f>VLOOKUP(D2,[2]Sheet1!$A:$B,2,FALSE)</f>
+        <f>VLOOKUP(D2,[1]Sheet1!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -9566,13 +8919,13 @@
         <v>40401</v>
       </c>
       <c r="C3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E3" t="e">
-        <f>VLOOKUP(D3,[2]Sheet1!$A:$B,2,FALSE)</f>
+        <f>VLOOKUP(D3,[1]Sheet1!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -9584,13 +8937,13 @@
         <v>40401</v>
       </c>
       <c r="C4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E4" t="e">
-        <f>VLOOKUP(D4,[2]Sheet1!$A:$B,2,FALSE)</f>
+        <f>VLOOKUP(D4,[1]Sheet1!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -9602,13 +8955,13 @@
         <v>40401</v>
       </c>
       <c r="C5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D5" t="s">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="E5" t="e">
-        <f>VLOOKUP(D5,[2]Sheet1!$A:$B,2,FALSE)</f>
+        <f>VLOOKUP(D5,[1]Sheet1!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -9620,13 +8973,13 @@
         <v>40401</v>
       </c>
       <c r="C6" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="E6" t="e">
-        <f>VLOOKUP(D6,[2]Sheet1!$A:$B,2,FALSE)</f>
+        <f>VLOOKUP(D6,[1]Sheet1!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -9638,13 +8991,13 @@
         <v>40401</v>
       </c>
       <c r="C7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E7" t="e">
-        <f>VLOOKUP(D7,[2]Sheet1!$A:$B,2,FALSE)</f>
+        <f>VLOOKUP(D7,[1]Sheet1!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -9656,13 +9009,13 @@
         <v>40401</v>
       </c>
       <c r="C8" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E8" t="str">
-        <f>VLOOKUP(D8,[2]Sheet1!$A:$B,2,FALSE)</f>
+        <f>VLOOKUP(D8,[1]Sheet1!$A:$B,2,FALSE)</f>
         <v>wxid_m3qo6txxs6g322</v>
       </c>
     </row>
@@ -9674,13 +9027,13 @@
         <v>40401</v>
       </c>
       <c r="C9" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="E9" t="str">
-        <f>VLOOKUP(D9,[2]Sheet1!$A:$B,2,FALSE)</f>
+        <f>VLOOKUP(D9,[1]Sheet1!$A:$B,2,FALSE)</f>
         <v>wxid_vrboab5zmymo21</v>
       </c>
     </row>
@@ -9692,13 +9045,13 @@
         <v>40401</v>
       </c>
       <c r="C10" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D10" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="E10" t="str">
-        <f>VLOOKUP(D10,[2]Sheet1!$A:$B,2,FALSE)</f>
+        <f>VLOOKUP(D10,[1]Sheet1!$A:$B,2,FALSE)</f>
         <v>wxid_cmwlkzgxwvjt22</v>
       </c>
     </row>
@@ -9710,13 +9063,13 @@
         <v>40401</v>
       </c>
       <c r="C11" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="E11" t="str">
-        <f>VLOOKUP(D11,[2]Sheet1!$A:$B,2,FALSE)</f>
+        <f>VLOOKUP(D11,[1]Sheet1!$A:$B,2,FALSE)</f>
         <v>wxid_6vtwqdzu6joh21</v>
       </c>
     </row>
@@ -9728,13 +9081,13 @@
         <v>40401</v>
       </c>
       <c r="C12" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D12" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E12" t="str">
-        <f>VLOOKUP(D12,[2]Sheet1!$A:$B,2,FALSE)</f>
+        <f>VLOOKUP(D12,[1]Sheet1!$A:$B,2,FALSE)</f>
         <v>wxid_ojr6y6dmgsyd22</v>
       </c>
     </row>
@@ -9746,13 +9099,13 @@
         <v>40401</v>
       </c>
       <c r="C13" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D13" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="E13" t="str">
-        <f>VLOOKUP(D13,[2]Sheet1!$A:$B,2,FALSE)</f>
+        <f>VLOOKUP(D13,[1]Sheet1!$A:$B,2,FALSE)</f>
         <v>wxid_bb5o8r0y72jr22</v>
       </c>
     </row>
@@ -9764,13 +9117,13 @@
         <v>40401</v>
       </c>
       <c r="C14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D14" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E14" t="str">
-        <f>VLOOKUP(D14,[2]Sheet1!$A:$B,2,FALSE)</f>
+        <f>VLOOKUP(D14,[1]Sheet1!$A:$B,2,FALSE)</f>
         <v>wxid_2epazrpcutvz22</v>
       </c>
     </row>
@@ -9782,13 +9135,13 @@
         <v>40401</v>
       </c>
       <c r="C15" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E15" t="str">
-        <f>VLOOKUP(D15,[2]Sheet1!$A:$B,2,FALSE)</f>
+        <f>VLOOKUP(D15,[1]Sheet1!$A:$B,2,FALSE)</f>
         <v>wxid_78a2zbfkdteu22</v>
       </c>
     </row>
@@ -9800,13 +9153,13 @@
         <v>40405</v>
       </c>
       <c r="C16" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="E16" t="str">
-        <f>VLOOKUP(D16,[2]Sheet1!$A:$B,2,FALSE)</f>
+        <f>VLOOKUP(D16,[1]Sheet1!$A:$B,2,FALSE)</f>
         <v>wxid_9bbqafjr957m22</v>
       </c>
     </row>
@@ -9818,13 +9171,13 @@
         <v>40401</v>
       </c>
       <c r="C17" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E17" t="str">
-        <f>VLOOKUP(D17,[2]Sheet1!$A:$B,2,FALSE)</f>
+        <f>VLOOKUP(D17,[1]Sheet1!$A:$B,2,FALSE)</f>
         <v>wxid_xfwhxury94ya22</v>
       </c>
     </row>
@@ -9836,13 +9189,13 @@
         <v>40401</v>
       </c>
       <c r="C18" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D18" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E18" t="str">
-        <f>VLOOKUP(D18,[2]Sheet1!$A:$B,2,FALSE)</f>
+        <f>VLOOKUP(D18,[1]Sheet1!$A:$B,2,FALSE)</f>
         <v>wxid_b05siwfkz3bz21</v>
       </c>
     </row>
@@ -9854,13 +9207,13 @@
         <v>40401</v>
       </c>
       <c r="C19" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D19" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E19" t="str">
-        <f>VLOOKUP(D19,[2]Sheet1!$A:$B,2,FALSE)</f>
+        <f>VLOOKUP(D19,[1]Sheet1!$A:$B,2,FALSE)</f>
         <v>wxid_ef7k8yk4d7mm22</v>
       </c>
     </row>
@@ -9872,13 +9225,13 @@
         <v>40401</v>
       </c>
       <c r="C20" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D20" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="E20" t="str">
-        <f>VLOOKUP(D20,[2]Sheet1!$A:$B,2,FALSE)</f>
+        <f>VLOOKUP(D20,[1]Sheet1!$A:$B,2,FALSE)</f>
         <v>wxid_1ydbcaxmco9u21</v>
       </c>
     </row>
@@ -9890,13 +9243,13 @@
         <v>40401</v>
       </c>
       <c r="C21" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D21" t="s">
-        <v>102</v>
+        <v>52</v>
       </c>
       <c r="E21" t="str">
-        <f>VLOOKUP(D21,[2]Sheet1!$A:$B,2,FALSE)</f>
+        <f>VLOOKUP(D21,[1]Sheet1!$A:$B,2,FALSE)</f>
         <v>wxid_55b808800acp22</v>
       </c>
     </row>
@@ -9908,13 +9261,13 @@
         <v>40401</v>
       </c>
       <c r="C22" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D22" t="s">
-        <v>142</v>
+        <v>72</v>
       </c>
       <c r="E22" t="str">
-        <f>VLOOKUP(D22,[2]Sheet1!$A:$B,2,FALSE)</f>
+        <f>VLOOKUP(D22,[1]Sheet1!$A:$B,2,FALSE)</f>
         <v>wxid_3hsgn9jikmrv22</v>
       </c>
     </row>
@@ -9932,7 +9285,7 @@
         <v>144</v>
       </c>
       <c r="E23" t="e">
-        <f>VLOOKUP(D23,[2]Sheet1!$A:$B,2,FALSE)</f>
+        <f>VLOOKUP(D23,[1]Sheet1!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -9950,7 +9303,7 @@
         <v>146</v>
       </c>
       <c r="E24" t="e">
-        <f>VLOOKUP(D24,[2]Sheet1!$A:$B,2,FALSE)</f>
+        <f>VLOOKUP(D24,[1]Sheet1!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -9965,10 +9318,10 @@
         <v>147</v>
       </c>
       <c r="D25" t="s">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="E25" t="str">
-        <f>VLOOKUP(D25,[2]Sheet1!$A:$B,2,FALSE)</f>
+        <f>VLOOKUP(D25,[1]Sheet1!$A:$B,2,FALSE)</f>
         <v>wxid_e28v6vmgdrmo22</v>
       </c>
     </row>
@@ -9980,13 +9333,13 @@
         <v>40401</v>
       </c>
       <c r="C26" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D26" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="E26" t="str">
-        <f>VLOOKUP(D26,[2]Sheet1!$A:$B,2,FALSE)</f>
+        <f>VLOOKUP(D26,[1]Sheet1!$A:$B,2,FALSE)</f>
         <v>wxid_ugx6qp6taogz22</v>
       </c>
     </row>
@@ -9998,13 +9351,13 @@
         <v>40401</v>
       </c>
       <c r="C27" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D27" t="s">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="E27" t="str">
-        <f>VLOOKUP(D27,[2]Sheet1!$A:$B,2,FALSE)</f>
+        <f>VLOOKUP(D27,[1]Sheet1!$A:$B,2,FALSE)</f>
         <v>wxid_asld4wuqcc0n22</v>
       </c>
     </row>
@@ -10016,13 +9369,13 @@
         <v>40401</v>
       </c>
       <c r="C28" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D28" t="s">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="E28" t="str">
-        <f>VLOOKUP(D28,[2]Sheet1!$A:$B,2,FALSE)</f>
+        <f>VLOOKUP(D28,[1]Sheet1!$A:$B,2,FALSE)</f>
         <v>sunmeiling1124</v>
       </c>
     </row>
@@ -10034,13 +9387,13 @@
         <v>40401</v>
       </c>
       <c r="C29" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D29" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E29" t="str">
-        <f>VLOOKUP(D29,[2]Sheet1!$A:$B,2,FALSE)</f>
+        <f>VLOOKUP(D29,[1]Sheet1!$A:$B,2,FALSE)</f>
         <v>wxid_3rl0ps542tu622</v>
       </c>
     </row>
@@ -10052,13 +9405,13 @@
         <v>40405</v>
       </c>
       <c r="C30" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D30" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E30" t="str">
-        <f>VLOOKUP(D30,[2]Sheet1!$A:$B,2,FALSE)</f>
+        <f>VLOOKUP(D30,[1]Sheet1!$A:$B,2,FALSE)</f>
         <v>wxid_dmzd576s73ya51</v>
       </c>
     </row>
@@ -10070,13 +9423,13 @@
         <v>40401</v>
       </c>
       <c r="C31" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D31" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E31" t="str">
-        <f>VLOOKUP(D31,[2]Sheet1!$A:$B,2,FALSE)</f>
+        <f>VLOOKUP(D31,[1]Sheet1!$A:$B,2,FALSE)</f>
         <v>wxid_ttlve5eatykj12</v>
       </c>
     </row>
@@ -10088,13 +9441,13 @@
         <v>40401</v>
       </c>
       <c r="C32" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D32" t="s">
-        <v>157</v>
+        <v>98</v>
       </c>
       <c r="E32" t="str">
-        <f>VLOOKUP(D32,[2]Sheet1!$A:$B,2,FALSE)</f>
+        <f>VLOOKUP(D32,[1]Sheet1!$A:$B,2,FALSE)</f>
         <v>wxid_njvwru09ot9a12</v>
       </c>
     </row>
@@ -10106,13 +9459,13 @@
         <v>40401</v>
       </c>
       <c r="C33" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D33" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="E33" t="str">
-        <f>VLOOKUP(D33,[2]Sheet1!$A:$B,2,FALSE)</f>
+        <f>VLOOKUP(D33,[1]Sheet1!$A:$B,2,FALSE)</f>
         <v>wxid_rpb2f58jriqm21</v>
       </c>
     </row>
@@ -10124,13 +9477,13 @@
         <v>40401</v>
       </c>
       <c r="C34" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D34" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E34" t="str">
-        <f>VLOOKUP(D34,[2]Sheet1!$A:$B,2,FALSE)</f>
+        <f>VLOOKUP(D34,[1]Sheet1!$A:$B,2,FALSE)</f>
         <v>wxid_hgdmqhfomfpg12</v>
       </c>
     </row>
@@ -10142,13 +9495,13 @@
         <v>40401</v>
       </c>
       <c r="C35" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D35" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="E35" t="str">
-        <f>VLOOKUP(D35,[2]Sheet1!$A:$B,2,FALSE)</f>
+        <f>VLOOKUP(D35,[1]Sheet1!$A:$B,2,FALSE)</f>
         <v>wxid_y8rvjsnd8sqv22</v>
       </c>
     </row>
@@ -10160,13 +9513,13 @@
         <v>40401</v>
       </c>
       <c r="C36" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D36" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E36" t="str">
-        <f>VLOOKUP(D36,[2]Sheet1!$A:$B,2,FALSE)</f>
+        <f>VLOOKUP(D36,[1]Sheet1!$A:$B,2,FALSE)</f>
         <v>wxid_d1os6vv94a6w21</v>
       </c>
     </row>
@@ -10178,13 +9531,13 @@
         <v>40401</v>
       </c>
       <c r="C37" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D37" t="s">
-        <v>62</v>
+        <v>166</v>
       </c>
       <c r="E37" t="str">
-        <f>VLOOKUP(D37,[2]Sheet1!$A:$B,2,FALSE)</f>
+        <f>VLOOKUP(D37,[1]Sheet1!$A:$B,2,FALSE)</f>
         <v>wxid_yst3wnysipsr21</v>
       </c>
     </row>
@@ -10196,13 +9549,13 @@
         <v>40401</v>
       </c>
       <c r="C38" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D38" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E38" t="str">
-        <f>VLOOKUP(D38,[2]Sheet1!$A:$B,2,FALSE)</f>
+        <f>VLOOKUP(D38,[1]Sheet1!$A:$B,2,FALSE)</f>
         <v>wxid_hcil3vhufhtu12</v>
       </c>
     </row>
@@ -10214,13 +9567,13 @@
         <v>40401</v>
       </c>
       <c r="C39" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D39" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E39" t="str">
-        <f>VLOOKUP(D39,[2]Sheet1!$A:$B,2,FALSE)</f>
+        <f>VLOOKUP(D39,[1]Sheet1!$A:$B,2,FALSE)</f>
         <v>wxid_s9qx4yy1dc6p22</v>
       </c>
     </row>
@@ -10232,13 +9585,13 @@
         <v>40401</v>
       </c>
       <c r="C40" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D40" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="E40" t="str">
-        <f>VLOOKUP(D40,[2]Sheet1!$A:$B,2,FALSE)</f>
+        <f>VLOOKUP(D40,[1]Sheet1!$A:$B,2,FALSE)</f>
         <v>wxid_jr47lw0f03vf22</v>
       </c>
     </row>
@@ -10250,13 +9603,13 @@
         <v>40401</v>
       </c>
       <c r="C41" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D41" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="E41" t="str">
-        <f>VLOOKUP(D41,[2]Sheet1!$A:$B,2,FALSE)</f>
+        <f>VLOOKUP(D41,[1]Sheet1!$A:$B,2,FALSE)</f>
         <v>wxid_h8xkda21uk0x22</v>
       </c>
     </row>
@@ -10268,13 +9621,13 @@
         <v>40401</v>
       </c>
       <c r="C42" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D42" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="E42" t="str">
-        <f>VLOOKUP(D42,[2]Sheet1!$A:$B,2,FALSE)</f>
+        <f>VLOOKUP(D42,[1]Sheet1!$A:$B,2,FALSE)</f>
         <v>wxid_v7iioht6v3lm22</v>
       </c>
     </row>
@@ -10286,13 +9639,13 @@
         <v>40401</v>
       </c>
       <c r="C43" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D43" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="E43" t="str">
-        <f>VLOOKUP(D43,[2]Sheet1!$A:$B,2,FALSE)</f>
+        <f>VLOOKUP(D43,[1]Sheet1!$A:$B,2,FALSE)</f>
         <v>wxid_xbxiy0zdo7rf22</v>
       </c>
     </row>
@@ -10304,13 +9657,13 @@
         <v>40401</v>
       </c>
       <c r="C44" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D44" t="s">
-        <v>173</v>
+        <v>36</v>
       </c>
       <c r="E44" t="str">
-        <f>VLOOKUP(D44,[2]Sheet1!$A:$B,2,FALSE)</f>
+        <f>VLOOKUP(D44,[1]Sheet1!$A:$B,2,FALSE)</f>
         <v>wxid_gybxd3t5hvd122</v>
       </c>
     </row>
@@ -10322,13 +9675,13 @@
         <v>40401</v>
       </c>
       <c r="C45" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D45" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E45" t="e">
-        <f>VLOOKUP(D45,[2]Sheet1!$A:$B,2,FALSE)</f>
+        <f>VLOOKUP(D45,[1]Sheet1!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -10340,13 +9693,13 @@
         <v>40401</v>
       </c>
       <c r="C46" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D46" t="s">
-        <v>177</v>
+        <v>92</v>
       </c>
       <c r="E46" t="str">
-        <f>VLOOKUP(D46,[2]Sheet1!$A:$B,2,FALSE)</f>
+        <f>VLOOKUP(D46,[1]Sheet1!$A:$B,2,FALSE)</f>
         <v>wxid_7647706476914</v>
       </c>
     </row>
@@ -10361,10 +9714,10 @@
         <v>178</v>
       </c>
       <c r="D47" t="s">
-        <v>96</v>
+        <v>179</v>
       </c>
       <c r="E47" t="str">
-        <f>VLOOKUP(D47,[2]Sheet1!$A:$B,2,FALSE)</f>
+        <f>VLOOKUP(D47,[1]Sheet1!$A:$B,2,FALSE)</f>
         <v>wxid_6r3de744y2jn22</v>
       </c>
     </row>
@@ -10376,13 +9729,13 @@
         <v>40401</v>
       </c>
       <c r="C48" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D48" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E48" t="str">
-        <f>VLOOKUP(D48,[2]Sheet1!$A:$B,2,FALSE)</f>
+        <f>VLOOKUP(D48,[1]Sheet1!$A:$B,2,FALSE)</f>
         <v>wxid_pnhol9sk3mqm12</v>
       </c>
     </row>
@@ -10394,13 +9747,13 @@
         <v>40401</v>
       </c>
       <c r="C49" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D49" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="E49" t="str">
-        <f>VLOOKUP(D49,[2]Sheet1!$A:$B,2,FALSE)</f>
+        <f>VLOOKUP(D49,[1]Sheet1!$A:$B,2,FALSE)</f>
         <v>wxid_0uow57aw5bqt22</v>
       </c>
     </row>
@@ -10412,13 +9765,13 @@
         <v>40401</v>
       </c>
       <c r="C50" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D50" t="s">
-        <v>106</v>
+        <v>184</v>
       </c>
       <c r="E50" t="str">
-        <f>VLOOKUP(D50,[2]Sheet1!$A:$B,2,FALSE)</f>
+        <f>VLOOKUP(D50,[1]Sheet1!$A:$B,2,FALSE)</f>
         <v>wxid_2sv169tw9wr822</v>
       </c>
     </row>
@@ -10430,13 +9783,13 @@
         <v>40401</v>
       </c>
       <c r="C51" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D51" t="s">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="E51" t="str">
-        <f>VLOOKUP(D51,[2]Sheet1!$A:$B,2,FALSE)</f>
+        <f>VLOOKUP(D51,[1]Sheet1!$A:$B,2,FALSE)</f>
         <v>wxid_17y9suibqm0021</v>
       </c>
     </row>
@@ -10448,13 +9801,13 @@
         <v>40401</v>
       </c>
       <c r="C52" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D52" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E52" t="str">
-        <f>VLOOKUP(D52,[2]Sheet1!$A:$B,2,FALSE)</f>
+        <f>VLOOKUP(D52,[1]Sheet1!$A:$B,2,FALSE)</f>
         <v>wxid_8kuzeuezeouj22</v>
       </c>
     </row>
@@ -10466,13 +9819,13 @@
         <v>40401</v>
       </c>
       <c r="C53" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D53" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E53" t="e">
-        <f>VLOOKUP(D53,[2]Sheet1!$A:$B,2,FALSE)</f>
+        <f>VLOOKUP(D53,[1]Sheet1!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -10484,13 +9837,13 @@
         <v>40401</v>
       </c>
       <c r="C54" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D54" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E54" t="str">
-        <f>VLOOKUP(D54,[2]Sheet1!$A:$B,2,FALSE)</f>
+        <f>VLOOKUP(D54,[1]Sheet1!$A:$B,2,FALSE)</f>
         <v>wxid_tckquvx45xne22</v>
       </c>
     </row>
@@ -10502,13 +9855,13 @@
         <v>40401</v>
       </c>
       <c r="C55" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D55" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E55" t="e">
-        <f>VLOOKUP(D55,[2]Sheet1!$A:$B,2,FALSE)</f>
+        <f>VLOOKUP(D55,[1]Sheet1!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -10520,13 +9873,13 @@
         <v>40401</v>
       </c>
       <c r="C56" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D56" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E56" t="str">
-        <f>VLOOKUP(D56,[2]Sheet1!$A:$B,2,FALSE)</f>
+        <f>VLOOKUP(D56,[1]Sheet1!$A:$B,2,FALSE)</f>
         <v>wxid_3me8a2t4bbg922</v>
       </c>
     </row>
@@ -10538,13 +9891,13 @@
         <v>40401</v>
       </c>
       <c r="C57" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D57" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E57" t="e">
-        <f>VLOOKUP(D57,[2]Sheet1!$A:$B,2,FALSE)</f>
+        <f>VLOOKUP(D57,[1]Sheet1!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
